--- a/DinhNghiaYeuCauTool.xlsx
+++ b/DinhNghiaYeuCauTool.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="0" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ScreenLayout!$A$1:$CD$62</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ScreenLayout!$A$1:$CD$68</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="90">
   <si>
     <t>No</t>
   </si>
@@ -206,18 +206,6 @@
     </r>
   </si>
   <si>
-    <t>* Về phần này có thể dựa vào property của windown để biết được</t>
-  </si>
-  <si>
-    <t>4.1 Tất cả các file có property update và add mới và phải có đuôi file như trong config</t>
-  </si>
-  <si>
-    <t>4.2 Trường hợp tìm kiếm từ file program list</t>
-  </si>
-  <si>
-    <t>Sẽ có 3 trạng thái Exist, Not Exist, Not exist in excel</t>
-  </si>
-  <si>
     <t>Exist: Là trạng thái tồn tại file</t>
   </si>
   <si>
@@ -227,22 +215,7 @@
     <t>không tồn tại trong program list</t>
   </si>
   <si>
-    <t>4.3 Trường hợp tìm kiếm từ source thì chỉ có 2 trạng thái  Exist, Not Exist</t>
-  </si>
-  <si>
     <t>Hiển thị theo như design</t>
-  </si>
-  <si>
-    <t>* Lưu ý cột checkbox chỉ được sử dụng với status là not exist in excel</t>
-  </si>
-  <si>
-    <t>mục đích là để khi export sẽ export theo cả file đấy nữa</t>
-  </si>
-  <si>
-    <t>Thực hiện export cả program list và source code</t>
-  </si>
-  <si>
-    <t>* Lưu ý chỉ export file có status là exist và not exist in excel khi được checked</t>
   </si>
   <si>
     <t>Thực hiện export source code</t>
@@ -274,31 +247,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>. Export Excel And Source</t>
-    </r>
-  </si>
-  <si>
-    <t>Not Exist in source: Là trạng thái không tồn tại file</t>
-  </si>
-  <si>
-    <t>* add thêm create date, update modifile</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>3</t>
     </r>
     <r>
@@ -311,19 +259,7 @@
     </r>
   </si>
   <si>
-    <t>4.3 Trường hợp tìm kiếm từ source thì chỉ có 2 trạng thái Add, Update</t>
-  </si>
-  <si>
-    <t>Export include program list</t>
-  </si>
-  <si>
     <t>Thực hiện export bao gồm program list và source</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.1 Trường hợp trạng thái của checkbox là checked</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.1 Trường hợp trạng thái của checkbox là unchecked</t>
   </si>
   <si>
     <t>Chỉ export source</t>
@@ -348,9 +284,6 @@
     </r>
   </si>
   <si>
-    <t>Phụ thuộc vào  checkbox 6 để phán đoán đối tượng export</t>
-  </si>
-  <si>
     <t>Check exist</t>
   </si>
   <si>
@@ -360,55 +293,19 @@
     <t>Add</t>
   </si>
   <si>
-    <t xml:space="preserve">Trường hợp Add, update mà chưa commit thì check exist là chưa commit </t>
+    <t>No commit</t>
   </si>
   <si>
-    <t>Chưa commit</t>
+    <t>* Lưu ý cột checkbox sẽ không sử dụng được với trường hợp là Not Exist</t>
   </si>
   <si>
-    <t>Sẽ có 2 trạng thái Exist, Not Exist</t>
+    <t>Check exist sẽ có 3 trạng thái Exist, Not Exist, Not exist in excel</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>. Export Excel And Source</t>
-    </r>
+    <t>Status sẽ lấy theo nội dung của programlist</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. Export source </t>
-    </r>
+    <t>Status thì có 2 trạng thái Add, Update</t>
   </si>
   <si>
     <r>
@@ -421,7 +318,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 6,</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -432,6 +329,103 @@
       <t>7 cho phép người dùng chọn path để lưu</t>
     </r>
   </si>
+  <si>
+    <t>Phụ thuộc vào checkbox 6 để phán đoán đối tượng export</t>
+  </si>
+  <si>
+    <t>XuatQC</t>
+  </si>
+  <si>
+    <t>* Về phần này sử dụng libGit2sharp để xác định đối tượng</t>
+  </si>
+  <si>
+    <t>* Đường dẫn thư mục source phải là đường dẫn source git</t>
+  </si>
+  <si>
+    <t>Compare file trên programlist và file trong source(yêu cầu nhập path source)</t>
+  </si>
+  <si>
+    <t>Export program list</t>
+  </si>
+  <si>
+    <t>Export source</t>
+  </si>
+  <si>
+    <t>8. Clear</t>
+  </si>
+  <si>
+    <t>9. Setting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Màn hình setting cho phép thêm, sửa, xóa đuôi file cần tìm kiếm </t>
+  </si>
+  <si>
+    <t>Xóa dữ liệu hiển thị trên list</t>
+  </si>
+  <si>
+    <t>Not Exist: Là trạng thái không tồn tại file</t>
+  </si>
+  <si>
+    <t>Tất cả các file có property update và add mới và phải có đuôi file như trong config</t>
+  </si>
+  <si>
+    <t>4.1 Trường hợp tìm kiếm theo programlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2 Trường hợp tìm kiếm từ source </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check exist có 1 trạng thái là No commit: Là file chưa được commit </t>
+  </si>
+  <si>
+    <t>Nếu check exist là Not Exist thì không thể chọn</t>
+  </si>
+  <si>
+    <t>vì nếu không tồn tại trong source thì sẽ không có file để export</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.1 Trường hợp trạng thái của checkbox  Export source là checked</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.2 Trường hợp trạng thái của checkbox programlist là checked</t>
+  </si>
+  <si>
+    <t>Chỉ export programlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.3 Trường hợp trạng thái của checkbox eport source, checkbox programlist là checked</t>
+  </si>
+  <si>
+    <t>Export source và export programlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.4 Trường hợp trạng thái của checkbox eport source, checkbox programlist là Unchecked</t>
+  </si>
+  <si>
+    <t>Không thực hiên Export source và export programlist</t>
+  </si>
+  <si>
+    <t>Hiển thị message thông báo yêu cầu lựa chọn đối tượng export</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Checkbox Export source và Export Programlist</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -440,7 +434,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,25 +491,11 @@
       <family val="2"/>
     </font>
     <font>
-      <strike/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <strike/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -563,7 +543,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,7 +949,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1144,47 +1124,65 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1202,9 +1200,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1256,15 +1251,23 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{DFD181E0-5E2F-11CE-A449-00AA004A803D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1272,39 +1275,39 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1316,11 +1319,23 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1332,23 +1347,23 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1357,16 +1372,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>47632</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>14287</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>32</xdr:col>
-          <xdr:colOff>104775</xdr:colOff>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>150819</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1395,7 +1410,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -1423,16 +1438,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>76200</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>23822</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>119063</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>32</xdr:col>
-          <xdr:colOff>114300</xdr:colOff>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>158759</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>103188</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1461,7 +1476,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -1475,7 +1490,7 @@
                   <a:latin typeface="Calibri"/>
                   <a:cs typeface="Calibri"/>
                 </a:rPr>
-                <a:t>Open Path Source</a:t>
+                <a:t>Open Source</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -1489,16 +1504,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>76200</xdr:colOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>139704</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:col>28</xdr:col>
+          <xdr:colOff>158754</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
+          <xdr:rowOff>7938</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1544,16 +1559,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>57150</xdr:colOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>144471</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>119063</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>76200</xdr:colOff>
+          <xdr:col>28</xdr:col>
+          <xdr:colOff>163521</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
+          <xdr:rowOff>107951</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1599,16 +1614,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>39</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:col>48</xdr:col>
+          <xdr:colOff>63505</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>46</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
+          <xdr:col>52</xdr:col>
+          <xdr:colOff>30167</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1637,7 +1652,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -1651,7 +1666,7 @@
                   <a:latin typeface="Calibri"/>
                   <a:cs typeface="Calibri"/>
                 </a:rPr>
-                <a:t>Find File</a:t>
+                <a:t>Find</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -1666,15 +1681,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>51</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>15873</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>7937</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>52</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:col>51</xdr:col>
+          <xdr:colOff>111123</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>15875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1758,7 +1773,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -1772,7 +1787,7 @@
                   <a:latin typeface="Calibri"/>
                   <a:cs typeface="Calibri"/>
                 </a:rPr>
-                <a:t>Export</a:t>
+                <a:t>Clear</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -1786,14 +1801,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>49</xdr:col>
-          <xdr:colOff>304800</xdr:colOff>
+          <xdr:col>50</xdr:col>
+          <xdr:colOff>19051</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>51</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>82551</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2107,13 +2122,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>50</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>4761</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>51</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
+          <xdr:colOff>61911</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
@@ -2299,13 +2314,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>50</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>12699</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>51</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:colOff>79374</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -2427,13 +2442,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>50</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>12699</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>51</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:colOff>79374</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -2491,13 +2506,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>50</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>12699</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>51</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:colOff>79374</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
@@ -2555,13 +2570,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>50</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>12699</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>51</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:colOff>79374</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -2683,13 +2698,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>50</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>12699</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>51</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:colOff>79374</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
@@ -2747,13 +2762,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>50</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>17463</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>51</xdr:col>
-          <xdr:colOff>76200</xdr:colOff>
+          <xdr:colOff>84138</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
@@ -2819,7 +2834,7 @@
           <xdr:col>42</xdr:col>
           <xdr:colOff>104775</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2870,6 +2885,521 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>150812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>222251</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rounded Rectangular Callout 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6715125" y="1079500"/>
+          <a:ext cx="2095501" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -3679"/>
+            <a:gd name="adj2" fmla="val 80449"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ngày bắt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> đầu tìm kiếm(ngày bắt đầu chỉnh sửa, add source)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>29</xdr:col>
+          <xdr:colOff>58738</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>38</xdr:col>
+          <xdr:colOff>30163</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>117475</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2074" name="OptionButton1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2074"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>29</xdr:col>
+          <xdr:colOff>65088</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>84137</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>37</xdr:col>
+          <xdr:colOff>46038</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>179387</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2075" name="OptionButton2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2075"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>31</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="339725" cy="233362"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2076" name="Check Box 28" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2076"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>31</xdr:col>
+          <xdr:colOff>134938</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>22225</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>39</xdr:col>
+          <xdr:colOff>74613</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>69850</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2077" name="Button 29" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2077"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Export</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>141288</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>82551</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>14288</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2078" name="Button 30" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2078"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Setting</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>111125</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>31751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>63131</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>150813</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="Group 7"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="111125" y="5715001"/>
+          <a:ext cx="2952381" cy="4699000"/>
+          <a:chOff x="111125" y="5715000"/>
+          <a:chExt cx="2952381" cy="4630332"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Picture 2"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="111125" y="7088189"/>
+            <a:ext cx="2952381" cy="3257143"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectangle 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="365125" y="5715000"/>
+            <a:ext cx="1706563" cy="587375"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1198563" y="6318250"/>
+            <a:ext cx="7937" cy="769938"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3137,17 +3667,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:CF66"/>
+  <dimension ref="A1:CF72"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="BB18" sqref="BB18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="BD44" sqref="BD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="2.5703125" style="1"/>
     <col min="4" max="4" width="3.140625" style="1" customWidth="1"/>
-    <col min="5" max="49" width="2.5703125" style="1"/>
+    <col min="5" max="36" width="2.5703125" style="1"/>
+    <col min="37" max="38" width="2.5703125" style="1" customWidth="1"/>
+    <col min="39" max="49" width="2.5703125" style="1"/>
     <col min="50" max="50" width="4.5703125" style="1" customWidth="1"/>
     <col min="51" max="51" width="4" style="1" customWidth="1"/>
     <col min="52" max="53" width="2.5703125" style="1"/>
@@ -3158,194 +3690,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="102" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
-      <c r="Y1" s="103"/>
-      <c r="Z1" s="103"/>
-      <c r="AA1" s="103"/>
-      <c r="AB1" s="103"/>
-      <c r="AC1" s="103"/>
-      <c r="AD1" s="103"/>
-      <c r="AE1" s="103"/>
-      <c r="AF1" s="103"/>
-      <c r="AG1" s="103"/>
-      <c r="AH1" s="103"/>
-      <c r="AI1" s="103"/>
-      <c r="AJ1" s="103"/>
-      <c r="AK1" s="103"/>
-      <c r="AL1" s="103"/>
-      <c r="AM1" s="103"/>
-      <c r="AN1" s="102" t="s">
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="108"/>
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="108"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="108"/>
+      <c r="AH1" s="108"/>
+      <c r="AI1" s="108"/>
+      <c r="AJ1" s="108"/>
+      <c r="AK1" s="108"/>
+      <c r="AL1" s="108"/>
+      <c r="AM1" s="108"/>
+      <c r="AN1" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="AO1" s="104"/>
-      <c r="AP1" s="94" t="s">
+      <c r="AO1" s="109"/>
+      <c r="AP1" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="AQ1" s="94"/>
-      <c r="AR1" s="94"/>
-      <c r="AS1" s="94"/>
-      <c r="AT1" s="94"/>
-      <c r="AU1" s="94"/>
-      <c r="AV1" s="94"/>
-      <c r="AW1" s="94"/>
-      <c r="AX1" s="94"/>
-      <c r="AY1" s="94"/>
-      <c r="AZ1" s="94" t="s">
+      <c r="AQ1" s="90"/>
+      <c r="AR1" s="90"/>
+      <c r="AS1" s="90"/>
+      <c r="AT1" s="90"/>
+      <c r="AU1" s="90"/>
+      <c r="AV1" s="90"/>
+      <c r="AW1" s="90"/>
+      <c r="AX1" s="90"/>
+      <c r="AY1" s="90"/>
+      <c r="AZ1" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="BA1" s="94"/>
-      <c r="BB1" s="94"/>
-      <c r="BC1" s="94"/>
-      <c r="BD1" s="94"/>
-      <c r="BE1" s="94"/>
-      <c r="BF1" s="94"/>
-      <c r="BG1" s="94"/>
-      <c r="BH1" s="94"/>
-      <c r="BI1" s="94"/>
-      <c r="BJ1" s="94" t="s">
+      <c r="BA1" s="90"/>
+      <c r="BB1" s="90"/>
+      <c r="BC1" s="90"/>
+      <c r="BD1" s="90"/>
+      <c r="BE1" s="90"/>
+      <c r="BF1" s="90"/>
+      <c r="BG1" s="90"/>
+      <c r="BH1" s="90"/>
+      <c r="BI1" s="90"/>
+      <c r="BJ1" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="BK1" s="94"/>
-      <c r="BL1" s="94"/>
-      <c r="BM1" s="94"/>
-      <c r="BN1" s="94"/>
-      <c r="BO1" s="94"/>
-      <c r="BP1" s="94"/>
-      <c r="BQ1" s="94"/>
-      <c r="BR1" s="94"/>
-      <c r="BS1" s="94"/>
-      <c r="BT1" s="94" t="s">
+      <c r="BK1" s="90"/>
+      <c r="BL1" s="90"/>
+      <c r="BM1" s="90"/>
+      <c r="BN1" s="90"/>
+      <c r="BO1" s="90"/>
+      <c r="BP1" s="90"/>
+      <c r="BQ1" s="90"/>
+      <c r="BR1" s="90"/>
+      <c r="BS1" s="90"/>
+      <c r="BT1" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="BU1" s="94"/>
-      <c r="BV1" s="94"/>
-      <c r="BW1" s="94"/>
-      <c r="BX1" s="94"/>
-      <c r="BY1" s="94"/>
-      <c r="BZ1" s="94"/>
-      <c r="CA1" s="94"/>
-      <c r="CB1" s="94"/>
-      <c r="CC1" s="94"/>
+      <c r="BU1" s="90"/>
+      <c r="BV1" s="90"/>
+      <c r="BW1" s="90"/>
+      <c r="BX1" s="90"/>
+      <c r="BY1" s="90"/>
+      <c r="BZ1" s="90"/>
+      <c r="CA1" s="90"/>
+      <c r="CB1" s="90"/>
+      <c r="CC1" s="90"/>
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="95" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="U2" s="96"/>
-      <c r="V2" s="96"/>
-      <c r="W2" s="96"/>
-      <c r="X2" s="96"/>
-      <c r="Y2" s="96"/>
-      <c r="Z2" s="96"/>
-      <c r="AA2" s="96"/>
-      <c r="AB2" s="96"/>
-      <c r="AC2" s="96"/>
-      <c r="AD2" s="96"/>
-      <c r="AE2" s="96"/>
-      <c r="AF2" s="96"/>
-      <c r="AG2" s="96"/>
-      <c r="AH2" s="96"/>
-      <c r="AI2" s="96"/>
-      <c r="AJ2" s="96"/>
-      <c r="AK2" s="96"/>
-      <c r="AL2" s="96"/>
-      <c r="AM2" s="96"/>
-      <c r="AN2" s="98">
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="101"/>
+      <c r="AG2" s="101"/>
+      <c r="AH2" s="101"/>
+      <c r="AI2" s="101"/>
+      <c r="AJ2" s="101"/>
+      <c r="AK2" s="101"/>
+      <c r="AL2" s="101"/>
+      <c r="AM2" s="101"/>
+      <c r="AN2" s="103">
         <v>1</v>
       </c>
-      <c r="AO2" s="99"/>
-      <c r="AP2" s="100">
+      <c r="AO2" s="104"/>
+      <c r="AP2" s="105">
         <v>43919</v>
       </c>
-      <c r="AQ2" s="101"/>
-      <c r="AR2" s="101"/>
-      <c r="AS2" s="101"/>
-      <c r="AT2" s="101"/>
-      <c r="AU2" s="101"/>
-      <c r="AV2" s="101"/>
-      <c r="AW2" s="101"/>
-      <c r="AX2" s="101"/>
-      <c r="AY2" s="101"/>
-      <c r="AZ2" s="100" t="s">
+      <c r="AQ2" s="106"/>
+      <c r="AR2" s="106"/>
+      <c r="AS2" s="106"/>
+      <c r="AT2" s="106"/>
+      <c r="AU2" s="106"/>
+      <c r="AV2" s="106"/>
+      <c r="AW2" s="106"/>
+      <c r="AX2" s="106"/>
+      <c r="AY2" s="106"/>
+      <c r="AZ2" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="BA2" s="101"/>
-      <c r="BB2" s="101"/>
-      <c r="BC2" s="101"/>
-      <c r="BD2" s="101"/>
-      <c r="BE2" s="101"/>
-      <c r="BF2" s="101"/>
-      <c r="BG2" s="101"/>
-      <c r="BH2" s="101"/>
-      <c r="BI2" s="101"/>
-      <c r="BJ2" s="100"/>
-      <c r="BK2" s="101"/>
-      <c r="BL2" s="101"/>
-      <c r="BM2" s="101"/>
-      <c r="BN2" s="101"/>
-      <c r="BO2" s="101"/>
-      <c r="BP2" s="101"/>
-      <c r="BQ2" s="101"/>
-      <c r="BR2" s="101"/>
-      <c r="BS2" s="101"/>
-      <c r="BT2" s="101"/>
-      <c r="BU2" s="101"/>
-      <c r="BV2" s="101"/>
-      <c r="BW2" s="101"/>
-      <c r="BX2" s="101"/>
-      <c r="BY2" s="101"/>
-      <c r="BZ2" s="101"/>
-      <c r="CA2" s="101"/>
-      <c r="CB2" s="101"/>
-      <c r="CC2" s="101"/>
+      <c r="BA2" s="106"/>
+      <c r="BB2" s="106"/>
+      <c r="BC2" s="106"/>
+      <c r="BD2" s="106"/>
+      <c r="BE2" s="106"/>
+      <c r="BF2" s="106"/>
+      <c r="BG2" s="106"/>
+      <c r="BH2" s="106"/>
+      <c r="BI2" s="106"/>
+      <c r="BJ2" s="105">
+        <v>43935</v>
+      </c>
+      <c r="BK2" s="106"/>
+      <c r="BL2" s="106"/>
+      <c r="BM2" s="106"/>
+      <c r="BN2" s="106"/>
+      <c r="BO2" s="106"/>
+      <c r="BP2" s="106"/>
+      <c r="BQ2" s="106"/>
+      <c r="BR2" s="106"/>
+      <c r="BS2" s="106"/>
+      <c r="BT2" s="106" t="s">
+        <v>64</v>
+      </c>
+      <c r="BU2" s="106"/>
+      <c r="BV2" s="106"/>
+      <c r="BW2" s="106"/>
+      <c r="BX2" s="106"/>
+      <c r="BY2" s="106"/>
+      <c r="BZ2" s="106"/>
+      <c r="CA2" s="106"/>
+      <c r="CB2" s="106"/>
+      <c r="CC2" s="106"/>
     </row>
     <row r="3" spans="1:81" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -3430,91 +3966,91 @@
       <c r="CB3" s="2"/>
     </row>
     <row r="5" spans="1:81" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="89"/>
-      <c r="T5" s="89"/>
-      <c r="U5" s="89"/>
-      <c r="V5" s="89"/>
-      <c r="W5" s="89"/>
-      <c r="X5" s="89"/>
-      <c r="Y5" s="89"/>
-      <c r="Z5" s="89"/>
-      <c r="AA5" s="89"/>
-      <c r="AB5" s="89"/>
-      <c r="AC5" s="89"/>
-      <c r="AD5" s="89"/>
-      <c r="AE5" s="89"/>
-      <c r="AF5" s="89"/>
-      <c r="AG5" s="89"/>
-      <c r="AH5" s="89"/>
-      <c r="AI5" s="89"/>
-      <c r="AJ5" s="89"/>
-      <c r="AK5" s="89"/>
-      <c r="AL5" s="89"/>
-      <c r="AM5" s="89"/>
-      <c r="AN5" s="89"/>
-      <c r="AO5" s="89"/>
-      <c r="AP5" s="89"/>
-      <c r="AQ5" s="89"/>
-      <c r="AR5" s="89"/>
-      <c r="AS5" s="89"/>
-      <c r="AT5" s="89"/>
-      <c r="AU5" s="89"/>
-      <c r="AV5" s="89"/>
-      <c r="AW5" s="89"/>
-      <c r="AX5" s="89"/>
-      <c r="AY5" s="89"/>
-      <c r="AZ5" s="89"/>
-      <c r="BA5" s="89"/>
-      <c r="BB5" s="90"/>
-      <c r="BC5" s="91" t="s">
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="95"/>
+      <c r="U5" s="95"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
+      <c r="X5" s="95"/>
+      <c r="Y5" s="95"/>
+      <c r="Z5" s="95"/>
+      <c r="AA5" s="95"/>
+      <c r="AB5" s="95"/>
+      <c r="AC5" s="95"/>
+      <c r="AD5" s="95"/>
+      <c r="AE5" s="95"/>
+      <c r="AF5" s="95"/>
+      <c r="AG5" s="95"/>
+      <c r="AH5" s="95"/>
+      <c r="AI5" s="95"/>
+      <c r="AJ5" s="95"/>
+      <c r="AK5" s="95"/>
+      <c r="AL5" s="95"/>
+      <c r="AM5" s="95"/>
+      <c r="AN5" s="95"/>
+      <c r="AO5" s="95"/>
+      <c r="AP5" s="95"/>
+      <c r="AQ5" s="95"/>
+      <c r="AR5" s="95"/>
+      <c r="AS5" s="95"/>
+      <c r="AT5" s="95"/>
+      <c r="AU5" s="95"/>
+      <c r="AV5" s="95"/>
+      <c r="AW5" s="95"/>
+      <c r="AX5" s="95"/>
+      <c r="AY5" s="95"/>
+      <c r="AZ5" s="95"/>
+      <c r="BA5" s="95"/>
+      <c r="BB5" s="96"/>
+      <c r="BC5" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="BD5" s="92"/>
-      <c r="BE5" s="92"/>
-      <c r="BF5" s="92"/>
-      <c r="BG5" s="92"/>
-      <c r="BH5" s="92"/>
-      <c r="BI5" s="92"/>
-      <c r="BJ5" s="92"/>
-      <c r="BK5" s="92"/>
-      <c r="BL5" s="92"/>
-      <c r="BM5" s="92"/>
-      <c r="BN5" s="92"/>
-      <c r="BO5" s="92"/>
-      <c r="BP5" s="92"/>
-      <c r="BQ5" s="92"/>
-      <c r="BR5" s="92"/>
-      <c r="BS5" s="92"/>
-      <c r="BT5" s="92"/>
-      <c r="BU5" s="92"/>
-      <c r="BV5" s="92"/>
-      <c r="BW5" s="92"/>
-      <c r="BX5" s="92"/>
-      <c r="BY5" s="92"/>
-      <c r="BZ5" s="92"/>
-      <c r="CA5" s="92"/>
-      <c r="CB5" s="92"/>
-      <c r="CC5" s="93"/>
+      <c r="BD5" s="98"/>
+      <c r="BE5" s="98"/>
+      <c r="BF5" s="98"/>
+      <c r="BG5" s="98"/>
+      <c r="BH5" s="98"/>
+      <c r="BI5" s="98"/>
+      <c r="BJ5" s="98"/>
+      <c r="BK5" s="98"/>
+      <c r="BL5" s="98"/>
+      <c r="BM5" s="98"/>
+      <c r="BN5" s="98"/>
+      <c r="BO5" s="98"/>
+      <c r="BP5" s="98"/>
+      <c r="BQ5" s="98"/>
+      <c r="BR5" s="98"/>
+      <c r="BS5" s="98"/>
+      <c r="BT5" s="98"/>
+      <c r="BU5" s="98"/>
+      <c r="BV5" s="98"/>
+      <c r="BW5" s="98"/>
+      <c r="BX5" s="98"/>
+      <c r="BY5" s="98"/>
+      <c r="BZ5" s="98"/>
+      <c r="CA5" s="98"/>
+      <c r="CB5" s="98"/>
+      <c r="CC5" s="99"/>
     </row>
     <row r="6" spans="1:81" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
@@ -3981,14 +4517,16 @@
       <c r="AK11" s="22"/>
       <c r="AL11" s="22"/>
       <c r="AM11" s="22"/>
-      <c r="AN11" s="22"/>
-      <c r="AO11" s="22"/>
-      <c r="AP11" s="22"/>
-      <c r="AQ11" s="22"/>
-      <c r="AR11" s="22"/>
-      <c r="AS11" s="22"/>
-      <c r="AT11" s="22"/>
-      <c r="AU11" s="22"/>
+      <c r="AN11" s="91">
+        <v>43936</v>
+      </c>
+      <c r="AO11" s="92"/>
+      <c r="AP11" s="92"/>
+      <c r="AQ11" s="92"/>
+      <c r="AR11" s="92"/>
+      <c r="AS11" s="92"/>
+      <c r="AT11" s="92"/>
+      <c r="AU11" s="93"/>
       <c r="AV11" s="22"/>
       <c r="AW11" s="22"/>
       <c r="AX11" s="22"/>
@@ -4166,7 +4704,7 @@
       <c r="BB13" s="8"/>
       <c r="BC13" s="6"/>
       <c r="BD13" s="7" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="BE13" s="7"/>
       <c r="BF13" s="7"/>
@@ -4222,13 +4760,13 @@
       <c r="U14" s="61"/>
       <c r="V14" s="61"/>
       <c r="W14" s="61"/>
-      <c r="X14" s="77"/>
+      <c r="X14" s="68"/>
       <c r="Y14" s="61"/>
       <c r="Z14" s="61"/>
       <c r="AA14" s="61"/>
       <c r="AB14" s="61"/>
       <c r="AC14" s="61"/>
-      <c r="AD14" s="78" t="s">
+      <c r="AD14" s="69" t="s">
         <v>2</v>
       </c>
       <c r="AE14" s="25"/>
@@ -4248,7 +4786,7 @@
       <c r="AQ14" s="28"/>
       <c r="AR14" s="36"/>
       <c r="AS14" s="27" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="AT14" s="28"/>
       <c r="AU14" s="28"/>
@@ -4335,7 +4873,7 @@
       <c r="AK15" s="38"/>
       <c r="AL15" s="39"/>
       <c r="AM15" s="37" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="AN15" s="38"/>
       <c r="AO15" s="38"/>
@@ -4355,19 +4893,9 @@
       <c r="BA15" s="23"/>
       <c r="BB15" s="8"/>
       <c r="BC15" s="6"/>
-      <c r="BD15" s="7"/>
-      <c r="BE15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="BF15" s="7"/>
-      <c r="BG15" s="7"/>
-      <c r="BH15" s="7"/>
-      <c r="BI15" s="7"/>
-      <c r="BJ15" s="7"/>
-      <c r="BK15" s="7"/>
-      <c r="BL15" s="7"/>
-      <c r="BM15" s="7"/>
-      <c r="BN15" s="7"/>
+      <c r="BF15" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="BO15" s="7"/>
       <c r="BP15" s="7"/>
       <c r="BQ15" s="7"/>
@@ -4430,7 +4958,7 @@
       <c r="AK16" s="43"/>
       <c r="AL16" s="44"/>
       <c r="AM16" s="42" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="AN16" s="43"/>
       <c r="AO16" s="43"/>
@@ -4451,18 +4979,18 @@
       <c r="BB16" s="8"/>
       <c r="BC16" s="6"/>
       <c r="BD16" s="7"/>
-      <c r="BE16" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="BF16" s="51"/>
-      <c r="BG16" s="51"/>
-      <c r="BH16" s="51"/>
-      <c r="BI16" s="51"/>
-      <c r="BJ16" s="51"/>
-      <c r="BK16" s="51"/>
-      <c r="BL16" s="51"/>
-      <c r="BM16" s="51"/>
-      <c r="BN16" s="51"/>
+      <c r="BE16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="BF16" s="7"/>
+      <c r="BG16" s="7"/>
+      <c r="BH16" s="7"/>
+      <c r="BI16" s="7"/>
+      <c r="BJ16" s="7"/>
+      <c r="BK16" s="7"/>
+      <c r="BL16" s="7"/>
+      <c r="BM16" s="7"/>
+      <c r="BN16" s="7"/>
       <c r="BO16" s="51"/>
       <c r="BP16" s="51"/>
       <c r="BQ16" s="51"/>
@@ -4477,7 +5005,7 @@
       <c r="BZ16" s="51"/>
       <c r="CA16" s="51"/>
       <c r="CB16" s="51"/>
-      <c r="CC16" s="86"/>
+      <c r="CC16" s="70"/>
     </row>
     <row r="17" spans="1:84" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
@@ -4525,7 +5053,7 @@
       <c r="AK17" s="43"/>
       <c r="AL17" s="44"/>
       <c r="AM17" s="42" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="AN17" s="43"/>
       <c r="AO17" s="43"/>
@@ -4545,19 +5073,18 @@
       <c r="BA17" s="23"/>
       <c r="BB17" s="8"/>
       <c r="BC17" s="6"/>
-      <c r="BD17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="BE17" s="7"/>
-      <c r="BF17" s="7"/>
-      <c r="BG17" s="7"/>
-      <c r="BH17" s="7"/>
-      <c r="BI17" s="7"/>
-      <c r="BJ17" s="7"/>
-      <c r="BK17" s="7"/>
-      <c r="BL17" s="7"/>
-      <c r="BM17" s="7"/>
-      <c r="BN17" s="7"/>
+      <c r="BD17" s="7"/>
+      <c r="BF17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="BG17" s="51"/>
+      <c r="BH17" s="51"/>
+      <c r="BI17" s="51"/>
+      <c r="BJ17" s="51"/>
+      <c r="BK17" s="51"/>
+      <c r="BL17" s="51"/>
+      <c r="BM17" s="51"/>
+      <c r="BN17" s="51"/>
       <c r="BO17" s="7"/>
       <c r="BP17" s="7"/>
       <c r="BQ17" s="7"/>
@@ -4620,7 +5147,7 @@
       <c r="AK18" s="43"/>
       <c r="AL18" s="44"/>
       <c r="AM18" s="42" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="AN18" s="43"/>
       <c r="AO18" s="43"/>
@@ -4640,10 +5167,6 @@
       <c r="BA18" s="23"/>
       <c r="BB18" s="8"/>
       <c r="BC18" s="6"/>
-      <c r="BD18" s="7"/>
-      <c r="BE18" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="BF18" s="7"/>
       <c r="BG18" s="7"/>
       <c r="BH18" s="7"/>
@@ -4715,7 +5238,7 @@
       <c r="AK19" s="43"/>
       <c r="AL19" s="44"/>
       <c r="AM19" s="42" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="AN19" s="43"/>
       <c r="AO19" s="43"/>
@@ -4735,11 +5258,10 @@
       <c r="BA19" s="23"/>
       <c r="BB19" s="8"/>
       <c r="BC19" s="6"/>
-      <c r="BD19" s="7"/>
-      <c r="BE19" s="7"/>
-      <c r="BF19" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="BE19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF19" s="7"/>
       <c r="BG19" s="7"/>
       <c r="BH19" s="7"/>
       <c r="BI19" s="7"/>
@@ -4768,73 +5290,71 @@
       <c r="A20" s="6"/>
       <c r="B20" s="21"/>
       <c r="C20" s="22"/>
-      <c r="D20" s="66">
+      <c r="D20" s="72">
         <v>6</v>
       </c>
-      <c r="E20" s="79"/>
-      <c r="F20" s="80" t="s">
+      <c r="E20" s="73"/>
+      <c r="F20" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="81"/>
-      <c r="N20" s="81"/>
-      <c r="O20" s="81"/>
-      <c r="P20" s="81"/>
-      <c r="Q20" s="81"/>
-      <c r="R20" s="81"/>
-      <c r="S20" s="81"/>
-      <c r="T20" s="81"/>
-      <c r="U20" s="81"/>
-      <c r="V20" s="81"/>
-      <c r="W20" s="81"/>
-      <c r="X20" s="81"/>
-      <c r="Y20" s="81"/>
-      <c r="Z20" s="81"/>
-      <c r="AA20" s="81"/>
-      <c r="AB20" s="81"/>
-      <c r="AC20" s="81"/>
-      <c r="AD20" s="82" t="s">
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="75"/>
+      <c r="S20" s="75"/>
+      <c r="T20" s="75"/>
+      <c r="U20" s="75"/>
+      <c r="V20" s="75"/>
+      <c r="W20" s="75"/>
+      <c r="X20" s="75"/>
+      <c r="Y20" s="75"/>
+      <c r="Z20" s="75"/>
+      <c r="AA20" s="75"/>
+      <c r="AB20" s="75"/>
+      <c r="AC20" s="75"/>
+      <c r="AD20" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="AE20" s="83"/>
-      <c r="AF20" s="83"/>
-      <c r="AG20" s="83"/>
-      <c r="AH20" s="83"/>
-      <c r="AI20" s="83"/>
-      <c r="AJ20" s="83"/>
-      <c r="AK20" s="83"/>
-      <c r="AL20" s="84"/>
-      <c r="AM20" s="82" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN20" s="83"/>
-      <c r="AO20" s="83"/>
-      <c r="AP20" s="83"/>
-      <c r="AQ20" s="47"/>
-      <c r="AR20" s="84"/>
-      <c r="AS20" s="82" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT20" s="83"/>
-      <c r="AU20" s="83"/>
-      <c r="AV20" s="83"/>
-      <c r="AW20" s="47"/>
-      <c r="AX20" s="84"/>
-      <c r="AY20" s="85"/>
+      <c r="AE20" s="77"/>
+      <c r="AF20" s="77"/>
+      <c r="AG20" s="77"/>
+      <c r="AH20" s="77"/>
+      <c r="AI20" s="77"/>
+      <c r="AJ20" s="77"/>
+      <c r="AK20" s="77"/>
+      <c r="AL20" s="78"/>
+      <c r="AM20" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN20" s="77"/>
+      <c r="AO20" s="77"/>
+      <c r="AP20" s="77"/>
+      <c r="AQ20" s="79"/>
+      <c r="AR20" s="78"/>
+      <c r="AS20" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT20" s="77"/>
+      <c r="AU20" s="77"/>
+      <c r="AV20" s="77"/>
+      <c r="AW20" s="79"/>
+      <c r="AX20" s="78"/>
+      <c r="AY20" s="80"/>
       <c r="AZ20" s="22"/>
       <c r="BA20" s="23"/>
       <c r="BB20" s="8"/>
       <c r="BC20" s="6"/>
-      <c r="BD20" s="7"/>
-      <c r="BE20" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="BF20" s="7"/>
+      <c r="BF20" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="BG20" s="7"/>
       <c r="BH20" s="7"/>
       <c r="BI20" s="7"/>
@@ -4863,81 +5383,72 @@
       <c r="A21" s="6"/>
       <c r="B21" s="21"/>
       <c r="C21" s="22"/>
-      <c r="D21" s="66">
+      <c r="D21" s="72">
         <v>7</v>
       </c>
-      <c r="E21" s="79"/>
-      <c r="F21" s="80" t="s">
+      <c r="E21" s="73"/>
+      <c r="F21" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="81"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="81"/>
-      <c r="N21" s="81"/>
-      <c r="O21" s="81"/>
-      <c r="P21" s="81"/>
-      <c r="Q21" s="81"/>
-      <c r="R21" s="81"/>
-      <c r="S21" s="81"/>
-      <c r="T21" s="81"/>
-      <c r="U21" s="81"/>
-      <c r="V21" s="81"/>
-      <c r="W21" s="81"/>
-      <c r="X21" s="81"/>
-      <c r="Y21" s="81"/>
-      <c r="Z21" s="81"/>
-      <c r="AA21" s="81"/>
-      <c r="AB21" s="81"/>
-      <c r="AC21" s="81"/>
-      <c r="AD21" s="82" t="s">
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="75"/>
+      <c r="R21" s="75"/>
+      <c r="S21" s="75"/>
+      <c r="T21" s="75"/>
+      <c r="U21" s="75"/>
+      <c r="V21" s="75"/>
+      <c r="W21" s="75"/>
+      <c r="X21" s="75"/>
+      <c r="Y21" s="75"/>
+      <c r="Z21" s="75"/>
+      <c r="AA21" s="75"/>
+      <c r="AB21" s="75"/>
+      <c r="AC21" s="75"/>
+      <c r="AD21" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="AE21" s="83"/>
-      <c r="AF21" s="83"/>
-      <c r="AG21" s="83"/>
-      <c r="AH21" s="83"/>
-      <c r="AI21" s="83"/>
-      <c r="AJ21" s="83"/>
-      <c r="AK21" s="83"/>
-      <c r="AL21" s="84"/>
-      <c r="AM21" s="82" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN21" s="83"/>
-      <c r="AO21" s="83"/>
-      <c r="AP21" s="83"/>
-      <c r="AQ21" s="47"/>
-      <c r="AR21" s="84"/>
-      <c r="AS21" s="82" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT21" s="83"/>
-      <c r="AU21" s="83"/>
-      <c r="AV21" s="83"/>
-      <c r="AW21" s="47"/>
-      <c r="AX21" s="84"/>
-      <c r="AY21" s="85"/>
+      <c r="AE21" s="77"/>
+      <c r="AF21" s="77"/>
+      <c r="AG21" s="77"/>
+      <c r="AH21" s="77"/>
+      <c r="AI21" s="77"/>
+      <c r="AJ21" s="77"/>
+      <c r="AK21" s="77"/>
+      <c r="AL21" s="78"/>
+      <c r="AM21" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN21" s="77"/>
+      <c r="AO21" s="77"/>
+      <c r="AP21" s="77"/>
+      <c r="AQ21" s="79"/>
+      <c r="AR21" s="78"/>
+      <c r="AS21" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT21" s="77"/>
+      <c r="AU21" s="77"/>
+      <c r="AV21" s="77"/>
+      <c r="AW21" s="79"/>
+      <c r="AX21" s="78"/>
+      <c r="AY21" s="80"/>
       <c r="AZ21" s="22"/>
       <c r="BA21" s="23"/>
       <c r="BB21" s="8"/>
       <c r="BC21" s="6"/>
-      <c r="BD21" s="7"/>
-      <c r="BE21" s="7"/>
-      <c r="BF21" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="BG21" s="48"/>
-      <c r="BH21" s="48"/>
-      <c r="BI21" s="48"/>
-      <c r="BJ21" s="48"/>
-      <c r="BK21" s="48"/>
-      <c r="BL21" s="48"/>
-      <c r="BM21" s="48"/>
-      <c r="BN21" s="48"/>
+      <c r="BK21" s="7"/>
+      <c r="BL21" s="7"/>
+      <c r="BM21" s="7"/>
+      <c r="BN21" s="7"/>
       <c r="BO21" s="48"/>
       <c r="BP21" s="48"/>
       <c r="BQ21" s="48"/>
@@ -5000,7 +5511,7 @@
       <c r="AK22" s="43"/>
       <c r="AL22" s="44"/>
       <c r="AM22" s="42" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="AN22" s="43"/>
       <c r="AO22" s="43"/>
@@ -5020,22 +5531,19 @@
       <c r="BA22" s="23"/>
       <c r="BB22" s="8"/>
       <c r="BC22" s="6"/>
-      <c r="BD22" s="7"/>
+      <c r="BD22" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="BE22" s="7"/>
-      <c r="BF22" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="BG22" s="51"/>
-      <c r="BH22" s="51"/>
-      <c r="BI22" s="51"/>
-      <c r="BJ22" s="51"/>
-      <c r="BK22" s="51"/>
-      <c r="BL22" s="51"/>
-      <c r="BM22" s="51"/>
-      <c r="BN22" s="51"/>
-      <c r="BO22" s="51"/>
-      <c r="BP22" s="51"/>
-      <c r="BQ22" s="51"/>
+      <c r="BF22" s="7"/>
+      <c r="BG22" s="7"/>
+      <c r="BH22" s="7"/>
+      <c r="BI22" s="7"/>
+      <c r="BJ22" s="7"/>
+      <c r="BN22" s="48"/>
+      <c r="BO22" s="7"/>
+      <c r="BP22" s="7"/>
+      <c r="BQ22" s="7"/>
       <c r="BR22" s="51"/>
       <c r="BS22" s="51"/>
       <c r="BT22" s="51"/>
@@ -5095,7 +5603,7 @@
       <c r="AK23" s="43"/>
       <c r="AL23" s="44"/>
       <c r="AM23" s="42" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="AN23" s="43"/>
       <c r="AO23" s="43"/>
@@ -5116,23 +5624,9 @@
       <c r="BB23" s="8"/>
       <c r="BC23" s="6"/>
       <c r="BD23" s="7"/>
-      <c r="BE23" s="7"/>
-      <c r="BF23" s="7"/>
-      <c r="BG23" s="7"/>
-      <c r="BH23" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="BI23" s="7"/>
-      <c r="BJ23" s="7"/>
-      <c r="BK23" s="7"/>
-      <c r="BL23" s="7"/>
-      <c r="BM23" s="7"/>
-      <c r="BN23" s="7"/>
-      <c r="BO23" s="7"/>
-      <c r="BP23" s="7"/>
-      <c r="BQ23" s="7"/>
-      <c r="BR23" s="7"/>
-      <c r="BS23" s="7"/>
+      <c r="BE23" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="BT23" s="7"/>
       <c r="BU23" s="7"/>
       <c r="BV23" s="7"/>
@@ -5190,7 +5684,7 @@
       <c r="AK24" s="43"/>
       <c r="AL24" s="44"/>
       <c r="AM24" s="42" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="AN24" s="43"/>
       <c r="AO24" s="43"/>
@@ -5212,17 +5706,13 @@
       <c r="BC24" s="6"/>
       <c r="BD24" s="7"/>
       <c r="BE24" s="7"/>
-      <c r="BF24" s="7"/>
-      <c r="BG24" s="7"/>
-      <c r="BH24" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="BI24" s="7"/>
-      <c r="BJ24" s="7"/>
-      <c r="BK24" s="7"/>
-      <c r="BL24" s="7"/>
-      <c r="BM24" s="7"/>
-      <c r="BN24" s="7"/>
+      <c r="BF24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK24" s="48"/>
+      <c r="BL24" s="48"/>
+      <c r="BM24" s="48"/>
+      <c r="BN24" s="48"/>
       <c r="BO24" s="7"/>
       <c r="BP24" s="7"/>
       <c r="BQ24" s="7"/>
@@ -5285,7 +5775,7 @@
       <c r="AK25" s="43"/>
       <c r="AL25" s="44"/>
       <c r="AM25" s="42" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="AN25" s="43"/>
       <c r="AO25" s="43"/>
@@ -5307,23 +5797,22 @@
       <c r="BC25" s="6"/>
       <c r="BD25" s="7"/>
       <c r="BE25" s="7"/>
-      <c r="BF25" s="7"/>
-      <c r="BG25" s="52"/>
-      <c r="BH25" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="BI25" s="52"/>
-      <c r="BJ25" s="52"/>
-      <c r="BK25" s="52"/>
-      <c r="BL25" s="52"/>
-      <c r="BM25" s="52"/>
-      <c r="BN25" s="52"/>
-      <c r="BO25" s="52"/>
+      <c r="BG25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="BH25" s="48"/>
+      <c r="BI25" s="48"/>
+      <c r="BJ25" s="48"/>
+      <c r="BK25" s="7"/>
+      <c r="BL25" s="7"/>
+      <c r="BM25" s="7"/>
+      <c r="BN25" s="7"/>
+      <c r="BO25" s="7"/>
       <c r="BP25" s="52"/>
       <c r="BQ25" s="52"/>
       <c r="BR25" s="52"/>
-      <c r="BS25" s="52"/>
-      <c r="BT25" s="52"/>
+      <c r="BS25" s="7"/>
+      <c r="BT25" s="7"/>
       <c r="BU25" s="52"/>
       <c r="BV25" s="52"/>
       <c r="BW25" s="52"/>
@@ -5380,7 +5869,7 @@
       <c r="AK26" s="43"/>
       <c r="AL26" s="44"/>
       <c r="AM26" s="42" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="AN26" s="43"/>
       <c r="AO26" s="43"/>
@@ -5399,15 +5888,22 @@
       <c r="AZ26" s="22"/>
       <c r="BA26" s="23"/>
       <c r="BB26" s="8"/>
-      <c r="BL26" s="52"/>
-      <c r="BM26" s="52"/>
-      <c r="BN26" s="52"/>
-      <c r="BO26" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="BP26" s="52"/>
-      <c r="BQ26" s="52"/>
-      <c r="BR26" s="52"/>
+      <c r="BD26" s="7"/>
+      <c r="BE26" s="7"/>
+      <c r="BG26" s="51"/>
+      <c r="BH26" s="51"/>
+      <c r="BI26" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="BJ26" s="7"/>
+      <c r="BK26" s="7"/>
+      <c r="BL26" s="7"/>
+      <c r="BM26" s="7"/>
+      <c r="BN26" s="7"/>
+      <c r="BO26" s="52"/>
+      <c r="BP26" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="BS26" s="52"/>
       <c r="BT26" s="52"/>
       <c r="BU26" s="52"/>
@@ -5466,7 +5962,7 @@
       <c r="AK27" s="15"/>
       <c r="AL27" s="16"/>
       <c r="AM27" s="14" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="AN27" s="15"/>
       <c r="AO27" s="15"/>
@@ -5487,24 +5983,21 @@
       <c r="BB27" s="8"/>
       <c r="BC27" s="6"/>
       <c r="BD27" s="7"/>
-      <c r="BE27" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="BF27" s="7"/>
-      <c r="BG27" s="52"/>
-      <c r="BH27" s="52"/>
-      <c r="BI27" s="52"/>
-      <c r="BJ27" s="52"/>
+      <c r="BE27" s="7"/>
+      <c r="BG27" s="7"/>
+      <c r="BH27" s="7"/>
+      <c r="BI27" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ27" s="7"/>
       <c r="BK27" s="52"/>
-      <c r="BL27" s="48"/>
-      <c r="BM27" s="48"/>
-      <c r="BN27" s="48"/>
-      <c r="BO27" s="48"/>
-      <c r="BP27" s="48"/>
-      <c r="BQ27" s="48"/>
-      <c r="BR27" s="48"/>
-      <c r="BS27" s="48"/>
-      <c r="BT27" s="48"/>
+      <c r="BL27" s="52"/>
+      <c r="BM27" s="52"/>
+      <c r="BN27" s="52"/>
+      <c r="BQ27" s="52"/>
+      <c r="BR27" s="52"/>
+      <c r="BS27" s="52"/>
+      <c r="BT27" s="52"/>
       <c r="BU27" s="48"/>
       <c r="BV27" s="48"/>
       <c r="BW27" s="48"/>
@@ -5561,7 +6054,7 @@
       <c r="AK28" s="15"/>
       <c r="AL28" s="16"/>
       <c r="AM28" s="14" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="AN28" s="15"/>
       <c r="AO28" s="15"/>
@@ -5582,24 +6075,21 @@
       <c r="BB28" s="8"/>
       <c r="BC28" s="6"/>
       <c r="BD28" s="7"/>
-      <c r="BE28" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="BF28" s="48"/>
-      <c r="BG28" s="48"/>
-      <c r="BH28" s="48"/>
-      <c r="BI28" s="48"/>
-      <c r="BJ28" s="48"/>
-      <c r="BK28" s="48"/>
-      <c r="BL28" s="7"/>
-      <c r="BM28" s="7"/>
-      <c r="BN28" s="7"/>
-      <c r="BO28" s="7"/>
-      <c r="BP28" s="7"/>
-      <c r="BQ28" s="7"/>
-      <c r="BR28" s="7"/>
-      <c r="BS28" s="7"/>
-      <c r="BT28" s="7"/>
+      <c r="BE28" s="7"/>
+      <c r="BG28" s="7"/>
+      <c r="BH28" s="7"/>
+      <c r="BI28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ28" s="52"/>
+      <c r="BM28" s="52"/>
+      <c r="BN28" s="52"/>
+      <c r="BO28" s="52"/>
+      <c r="BP28" s="48"/>
+      <c r="BQ28" s="48"/>
+      <c r="BR28" s="48"/>
+      <c r="BS28" s="48"/>
+      <c r="BT28" s="48"/>
       <c r="BU28" s="7"/>
       <c r="BV28" s="7"/>
       <c r="BW28" s="7"/>
@@ -5614,87 +6104,72 @@
       <c r="A29" s="6"/>
       <c r="B29" s="21"/>
       <c r="C29" s="67"/>
-      <c r="D29" s="68">
+      <c r="D29" s="81">
         <v>15</v>
       </c>
-      <c r="E29" s="69"/>
-      <c r="F29" s="70" t="s">
+      <c r="E29" s="82"/>
+      <c r="F29" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="71"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="71"/>
-      <c r="Q29" s="71"/>
-      <c r="R29" s="71"/>
-      <c r="S29" s="71"/>
-      <c r="T29" s="71"/>
-      <c r="U29" s="71"/>
-      <c r="V29" s="71"/>
-      <c r="W29" s="71"/>
-      <c r="X29" s="71"/>
-      <c r="Y29" s="71"/>
-      <c r="Z29" s="71"/>
-      <c r="AA29" s="71"/>
-      <c r="AB29" s="71"/>
-      <c r="AC29" s="71"/>
-      <c r="AD29" s="72" t="s">
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="84"/>
+      <c r="N29" s="84"/>
+      <c r="O29" s="84"/>
+      <c r="P29" s="84"/>
+      <c r="Q29" s="84"/>
+      <c r="R29" s="84"/>
+      <c r="S29" s="84"/>
+      <c r="T29" s="84"/>
+      <c r="U29" s="84"/>
+      <c r="V29" s="84"/>
+      <c r="W29" s="84"/>
+      <c r="X29" s="84"/>
+      <c r="Y29" s="84"/>
+      <c r="Z29" s="84"/>
+      <c r="AA29" s="84"/>
+      <c r="AB29" s="84"/>
+      <c r="AC29" s="84"/>
+      <c r="AD29" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="AE29" s="73"/>
-      <c r="AF29" s="73"/>
-      <c r="AG29" s="73"/>
-      <c r="AH29" s="73"/>
-      <c r="AI29" s="73"/>
-      <c r="AJ29" s="73"/>
-      <c r="AK29" s="73"/>
-      <c r="AL29" s="74"/>
-      <c r="AM29" s="72" t="s">
+      <c r="AE29" s="86"/>
+      <c r="AF29" s="86"/>
+      <c r="AG29" s="86"/>
+      <c r="AH29" s="86"/>
+      <c r="AI29" s="86"/>
+      <c r="AJ29" s="86"/>
+      <c r="AK29" s="86"/>
+      <c r="AL29" s="87"/>
+      <c r="AM29" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="AN29" s="73"/>
-      <c r="AO29" s="73"/>
-      <c r="AP29" s="73"/>
-      <c r="AQ29" s="75"/>
-      <c r="AR29" s="74"/>
-      <c r="AS29" s="72" t="s">
+      <c r="AN29" s="86"/>
+      <c r="AO29" s="86"/>
+      <c r="AP29" s="86"/>
+      <c r="AQ29" s="88"/>
+      <c r="AR29" s="87"/>
+      <c r="AS29" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="AT29" s="73"/>
-      <c r="AU29" s="73"/>
-      <c r="AV29" s="73"/>
-      <c r="AW29" s="75"/>
-      <c r="AX29" s="74"/>
-      <c r="AY29" s="76"/>
+      <c r="AT29" s="86"/>
+      <c r="AU29" s="86"/>
+      <c r="AV29" s="86"/>
+      <c r="AW29" s="88"/>
+      <c r="AX29" s="87"/>
+      <c r="AY29" s="89"/>
       <c r="AZ29" s="22"/>
       <c r="BA29" s="23"/>
       <c r="BB29" s="8"/>
       <c r="BC29" s="6"/>
       <c r="BD29" s="7"/>
       <c r="BE29" s="7"/>
-      <c r="BF29" s="51"/>
-      <c r="BG29" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="BH29" s="51"/>
-      <c r="BI29" s="51"/>
-      <c r="BJ29" s="51"/>
-      <c r="BK29" s="51"/>
-      <c r="BL29" s="51"/>
-      <c r="BM29" s="51"/>
-      <c r="BN29" s="51"/>
-      <c r="BO29" s="51"/>
-      <c r="BP29" s="51"/>
-      <c r="BQ29" s="51"/>
-      <c r="BR29" s="51"/>
-      <c r="BS29" s="51"/>
-      <c r="BT29" s="51"/>
+      <c r="BS29" s="7"/>
+      <c r="BT29" s="7"/>
       <c r="BU29" s="51"/>
       <c r="BV29" s="51"/>
       <c r="BW29" s="51"/>
@@ -5703,12 +6178,12 @@
       <c r="BZ29" s="51"/>
       <c r="CA29" s="51"/>
       <c r="CB29" s="51"/>
-      <c r="CC29" s="86"/>
-      <c r="CD29" s="87"/>
-      <c r="CE29" s="87"/>
-      <c r="CF29" s="87"/>
+      <c r="CC29" s="70"/>
+      <c r="CD29" s="71"/>
+      <c r="CE29" s="71"/>
+      <c r="CF29" s="71"/>
     </row>
-    <row r="30" spans="1:84" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="21"/>
       <c r="C30" s="22"/>
@@ -5764,18 +6239,15 @@
       <c r="BA30" s="23"/>
       <c r="BB30" s="8"/>
       <c r="BC30" s="6"/>
-      <c r="BD30" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="BD30" s="7"/>
       <c r="BE30" s="7"/>
-      <c r="BF30" s="7"/>
-      <c r="BI30" s="7"/>
-      <c r="BJ30" s="7"/>
-      <c r="BK30" s="7"/>
-      <c r="BL30" s="7"/>
-      <c r="BM30" s="7"/>
-      <c r="BN30" s="7"/>
-      <c r="BO30" s="7"/>
+      <c r="BH30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BL30" s="52"/>
+      <c r="BM30" s="48"/>
+      <c r="BN30" s="48"/>
+      <c r="BO30" s="48"/>
       <c r="BP30" s="7"/>
       <c r="BQ30" s="7"/>
       <c r="BR30" s="7"/>
@@ -5825,7 +6297,9 @@
       <c r="AE31" s="22"/>
       <c r="AF31" s="22"/>
       <c r="AG31" s="22"/>
-      <c r="AH31" s="22"/>
+      <c r="AH31" s="22" t="s">
+        <v>69</v>
+      </c>
       <c r="AI31" s="22"/>
       <c r="AJ31" s="22"/>
       <c r="AK31" s="22"/>
@@ -5835,9 +6309,10 @@
       <c r="AO31" s="22"/>
       <c r="AP31" s="22"/>
       <c r="AQ31" s="22" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AR31" s="22"/>
+      <c r="AS31" s="22"/>
       <c r="AT31" s="22"/>
       <c r="AU31" s="22"/>
       <c r="AV31" s="22"/>
@@ -5848,21 +6323,12 @@
       <c r="BA31" s="23"/>
       <c r="BB31" s="8"/>
       <c r="BC31" s="6"/>
-      <c r="BD31" s="7"/>
-      <c r="BE31" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="BF31" s="7"/>
-      <c r="BG31" s="7"/>
-      <c r="BH31" s="7"/>
-      <c r="BI31" s="7"/>
-      <c r="BJ31" s="7"/>
-      <c r="BK31" s="7"/>
-      <c r="BL31" s="7"/>
-      <c r="BM31" s="7"/>
-      <c r="BN31" s="7"/>
-      <c r="BO31" s="7"/>
-      <c r="BP31" s="7"/>
+      <c r="BH31" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL31" s="51"/>
+      <c r="BM31" s="51"/>
+      <c r="BN31" s="51"/>
       <c r="BQ31" s="7"/>
       <c r="BR31" s="7"/>
       <c r="BS31" s="7"/>
@@ -5934,18 +6400,13 @@
       <c r="BB32" s="8"/>
       <c r="BC32" s="6"/>
       <c r="BD32" s="7"/>
-      <c r="BE32" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="BF32" s="7"/>
-      <c r="BG32" s="7"/>
-      <c r="BH32" s="7"/>
-      <c r="BI32" s="7"/>
-      <c r="BJ32" s="7"/>
-      <c r="BK32" s="7"/>
+      <c r="BE32" s="7"/>
+      <c r="BG32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK32" s="51"/>
       <c r="BL32" s="7"/>
       <c r="BM32" s="7"/>
-      <c r="BN32" s="7"/>
       <c r="BO32" s="7"/>
       <c r="BP32" s="7"/>
       <c r="BQ32" s="7"/>
@@ -6020,11 +6481,11 @@
       <c r="BC33" s="6"/>
       <c r="BD33" s="7"/>
       <c r="BE33" s="7"/>
-      <c r="BF33" s="7"/>
-      <c r="BG33" s="7"/>
-      <c r="BH33" s="7"/>
-      <c r="BI33" s="7"/>
-      <c r="BJ33" s="7"/>
+      <c r="BF33" s="48"/>
+      <c r="BG33" s="48"/>
+      <c r="BH33" s="48"/>
+      <c r="BI33" s="48"/>
+      <c r="BJ33" s="51"/>
       <c r="BK33" s="7"/>
       <c r="BL33" s="7"/>
       <c r="BM33" s="7"/>
@@ -6103,11 +6564,9 @@
       <c r="BB34" s="8"/>
       <c r="BC34" s="6"/>
       <c r="BD34" s="7"/>
-      <c r="BE34" s="7"/>
-      <c r="BF34" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="BG34" s="7"/>
+      <c r="BF34" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="BH34" s="7"/>
       <c r="BI34" s="7"/>
       <c r="BJ34" s="7"/>
@@ -6132,7 +6591,7 @@
       <c r="CC34" s="49"/>
       <c r="CD34" s="50"/>
     </row>
-    <row r="35" spans="1:82" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -6188,21 +6647,15 @@
       <c r="BA35" s="7"/>
       <c r="BB35" s="8"/>
       <c r="BC35" s="6"/>
-      <c r="BD35" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="BE35" s="48"/>
-      <c r="BF35" s="7"/>
-      <c r="BG35" s="7"/>
-      <c r="BH35" s="7"/>
-      <c r="BI35" s="7"/>
+      <c r="BH35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BI35" s="51"/>
       <c r="BJ35" s="7"/>
       <c r="BK35" s="7"/>
-      <c r="BL35" s="48"/>
-      <c r="BM35" s="48"/>
-      <c r="BN35" s="48"/>
-      <c r="BO35" s="48"/>
-      <c r="BP35" s="48"/>
+      <c r="BN35" s="7"/>
+      <c r="BO35" s="7"/>
+      <c r="BP35" s="7"/>
       <c r="BQ35" s="48"/>
       <c r="BR35" s="48"/>
       <c r="BS35" s="48"/>
@@ -6274,19 +6727,9 @@
       <c r="BA36" s="7"/>
       <c r="BB36" s="8"/>
       <c r="BC36" s="6"/>
-      <c r="BD36" s="48"/>
-      <c r="BE36" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF36" s="48"/>
-      <c r="BG36" s="48"/>
-      <c r="BH36" s="48"/>
-      <c r="BI36" s="48"/>
-      <c r="BJ36" s="48"/>
-      <c r="BK36" s="48"/>
-      <c r="BL36" s="48"/>
-      <c r="BM36" s="48"/>
-      <c r="BN36" s="48"/>
+      <c r="BG36" s="7"/>
+      <c r="BJ36" s="7"/>
+      <c r="BN36" s="7"/>
       <c r="BO36" s="48"/>
       <c r="BP36" s="48"/>
       <c r="BQ36" s="48"/>
@@ -6359,16 +6802,10 @@
       <c r="BA37" s="7"/>
       <c r="BB37" s="8"/>
       <c r="BC37" s="6"/>
-      <c r="BD37" s="48"/>
-      <c r="BE37" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF37" s="48"/>
-      <c r="BG37" s="48"/>
-      <c r="BH37" s="48"/>
-      <c r="BI37" s="48"/>
-      <c r="BJ37" s="48"/>
-      <c r="BK37" s="48"/>
+      <c r="BH37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK37" s="7"/>
       <c r="BL37" s="48"/>
       <c r="BM37" s="48"/>
       <c r="BN37" s="48"/>
@@ -6383,12 +6820,12 @@
       <c r="BW37" s="48"/>
       <c r="BX37" s="48"/>
       <c r="BY37" s="52"/>
-      <c r="BZ37" s="7"/>
-      <c r="CA37" s="7"/>
-      <c r="CB37" s="7"/>
-      <c r="CC37" s="8"/>
+      <c r="BZ37" s="52"/>
+      <c r="CA37" s="52"/>
+      <c r="CB37" s="52"/>
+      <c r="CC37" s="49"/>
     </row>
-    <row r="38" spans="1:82" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -6444,21 +6881,14 @@
       <c r="BA38" s="7"/>
       <c r="BB38" s="8"/>
       <c r="BC38" s="6"/>
-      <c r="BD38" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="BE38" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF38" s="48"/>
-      <c r="BG38" s="48"/>
-      <c r="BH38" s="48"/>
-      <c r="BI38" s="48"/>
-      <c r="BJ38" s="48"/>
-      <c r="BK38" s="48"/>
-      <c r="BL38" s="7"/>
-      <c r="BM38" s="7"/>
-      <c r="BN38" s="7"/>
+      <c r="BG38" s="7"/>
+      <c r="BH38" s="7"/>
+      <c r="BI38" s="7"/>
+      <c r="BJ38" s="7"/>
+      <c r="BK38" s="7"/>
+      <c r="BL38" s="48"/>
+      <c r="BM38" s="48"/>
+      <c r="BN38" s="48"/>
       <c r="BO38" s="7"/>
       <c r="BP38" s="7"/>
       <c r="BQ38" s="7"/>
@@ -6475,7 +6905,7 @@
       <c r="CB38" s="7"/>
       <c r="CC38" s="8"/>
     </row>
-    <row r="39" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:82" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -6485,7 +6915,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
-      <c r="J39" s="12"/>
+      <c r="J39" s="11"/>
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
       <c r="M39" s="11"/>
@@ -6531,11 +6961,10 @@
       <c r="BA39" s="7"/>
       <c r="BB39" s="8"/>
       <c r="BC39" s="6"/>
-      <c r="BD39" s="7"/>
-      <c r="BE39" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="BF39" s="7"/>
+      <c r="BD39" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="BE39" s="7"/>
       <c r="BG39" s="7"/>
       <c r="BH39" s="7"/>
       <c r="BI39" s="7"/>
@@ -6570,7 +6999,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
-      <c r="J40" s="12"/>
+      <c r="J40" s="11"/>
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
@@ -6617,9 +7046,13 @@
       <c r="BB40" s="8"/>
       <c r="BC40" s="6"/>
       <c r="BD40" s="7"/>
-      <c r="BE40" s="7"/>
+      <c r="BE40" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="BG40" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="BH40" s="7"/>
-      <c r="BI40" s="7"/>
       <c r="BJ40" s="7"/>
       <c r="BK40" s="7"/>
       <c r="BL40" s="7"/>
@@ -6651,7 +7084,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
-      <c r="J41" s="12"/>
+      <c r="J41" s="11"/>
       <c r="K41" s="11"/>
       <c r="L41" s="11"/>
       <c r="M41" s="11"/>
@@ -6698,11 +7131,12 @@
       <c r="BB41" s="8"/>
       <c r="BC41" s="6"/>
       <c r="BD41" s="7"/>
-      <c r="BE41" s="7"/>
-      <c r="BG41" s="7" t="s">
-        <v>65</v>
-      </c>
+      <c r="BE41" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="BG41" s="7"/>
       <c r="BH41" s="7"/>
+      <c r="BI41" s="7"/>
       <c r="BJ41" s="7"/>
       <c r="BK41" s="7"/>
       <c r="BL41" s="7"/>
@@ -6734,7 +7168,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
-      <c r="J42" s="12"/>
+      <c r="J42" s="11"/>
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
       <c r="M42" s="11"/>
@@ -6781,9 +7215,7 @@
       <c r="BB42" s="8"/>
       <c r="BC42" s="6"/>
       <c r="BD42" s="7"/>
-      <c r="BE42" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="BE42" s="7"/>
       <c r="BG42" s="7"/>
       <c r="BH42" s="7"/>
       <c r="BI42" s="7"/>
@@ -6808,7 +7240,7 @@
       <c r="CB42" s="7"/>
       <c r="CC42" s="8"/>
     </row>
-    <row r="43" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:82" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -6864,7 +7296,9 @@
       <c r="BA43" s="7"/>
       <c r="BB43" s="8"/>
       <c r="BC43" s="6"/>
-      <c r="BD43" s="7"/>
+      <c r="BD43" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="BE43" s="7"/>
       <c r="BF43" s="7"/>
       <c r="BG43" s="7"/>
@@ -6886,9 +7320,9 @@
       <c r="BW43" s="7"/>
       <c r="BX43" s="7"/>
       <c r="BY43" s="7"/>
-      <c r="BZ43" s="7"/>
-      <c r="CA43" s="7"/>
-      <c r="CB43" s="7"/>
+      <c r="BZ43" s="51"/>
+      <c r="CA43" s="51"/>
+      <c r="CB43" s="51"/>
       <c r="CC43" s="8"/>
     </row>
     <row r="44" spans="1:82" x14ac:dyDescent="0.25">
@@ -6948,11 +7382,11 @@
       <c r="BB44" s="8"/>
       <c r="BC44" s="6"/>
       <c r="BD44" s="7"/>
-      <c r="BE44" s="7"/>
+      <c r="BE44" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="BF44" s="7"/>
-      <c r="BG44" s="7" t="s">
-        <v>68</v>
-      </c>
+      <c r="BH44" s="48"/>
       <c r="BI44" s="7"/>
       <c r="BJ44" s="7"/>
       <c r="BK44" s="7"/>
@@ -6970,12 +7404,12 @@
       <c r="BW44" s="7"/>
       <c r="BX44" s="7"/>
       <c r="BY44" s="7"/>
-      <c r="BZ44" s="7"/>
-      <c r="CA44" s="7"/>
-      <c r="CB44" s="7"/>
+      <c r="BZ44" s="51"/>
+      <c r="CA44" s="51"/>
+      <c r="CB44" s="51"/>
       <c r="CC44" s="8"/>
     </row>
-    <row r="45" spans="1:82" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -7031,15 +7465,15 @@
       <c r="BA45" s="7"/>
       <c r="BB45" s="8"/>
       <c r="BC45" s="6"/>
-      <c r="BD45" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="BE45" s="48"/>
+      <c r="BD45" s="7"/>
+      <c r="BE45" s="7"/>
       <c r="BF45" s="7"/>
-      <c r="BG45" s="7"/>
-      <c r="BH45" s="7"/>
-      <c r="BI45" s="7"/>
-      <c r="BJ45" s="7"/>
+      <c r="BG45" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="BH45" s="48"/>
+      <c r="BI45" s="48"/>
+      <c r="BJ45" s="48"/>
       <c r="BK45" s="7"/>
       <c r="BL45" s="7"/>
       <c r="BM45" s="7"/>
@@ -7060,7 +7494,7 @@
       <c r="CB45" s="7"/>
       <c r="CC45" s="8"/>
     </row>
-    <row r="46" spans="1:82" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -7116,13 +7550,11 @@
       <c r="BA46" s="7"/>
       <c r="BB46" s="8"/>
       <c r="BC46" s="6"/>
-      <c r="BD46" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="BD46" s="7"/>
       <c r="BE46" s="7"/>
-      <c r="BF46" s="48"/>
-      <c r="BG46" s="48"/>
-      <c r="BH46" s="48"/>
+      <c r="BF46" s="7"/>
+      <c r="BG46" s="7"/>
+      <c r="BH46" s="7"/>
       <c r="BI46" s="48"/>
       <c r="BJ46" s="48"/>
       <c r="BK46" s="7"/>
@@ -7131,9 +7563,9 @@
       <c r="BN46" s="7"/>
       <c r="BO46" s="7"/>
       <c r="BP46" s="7"/>
-      <c r="BQ46" s="7"/>
-      <c r="BR46" s="7"/>
-      <c r="BS46" s="7"/>
+      <c r="BQ46" s="48"/>
+      <c r="BR46" s="48"/>
+      <c r="BS46" s="48"/>
       <c r="BT46" s="7"/>
       <c r="BU46" s="7"/>
       <c r="BV46" s="7"/>
@@ -7203,9 +7635,8 @@
       <c r="BC47" s="6"/>
       <c r="BD47" s="7"/>
       <c r="BE47" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="BF47" s="7"/>
+        <v>82</v>
+      </c>
       <c r="BG47" s="7"/>
       <c r="BH47" s="7"/>
       <c r="BI47" s="7"/>
@@ -7214,8 +7645,8 @@
       <c r="BL47" s="7"/>
       <c r="BM47" s="7"/>
       <c r="BN47" s="7"/>
-      <c r="BO47" s="7"/>
-      <c r="BP47" s="7"/>
+      <c r="BO47" s="48"/>
+      <c r="BP47" s="48"/>
       <c r="BQ47" s="7"/>
       <c r="BR47" s="7"/>
       <c r="BS47" s="7"/>
@@ -7225,9 +7656,9 @@
       <c r="BW47" s="7"/>
       <c r="BX47" s="7"/>
       <c r="BY47" s="7"/>
-      <c r="BZ47" s="51"/>
-      <c r="CA47" s="51"/>
-      <c r="CB47" s="51"/>
+      <c r="BZ47" s="7"/>
+      <c r="CA47" s="7"/>
+      <c r="CB47" s="7"/>
       <c r="CC47" s="8"/>
     </row>
     <row r="48" spans="1:82" x14ac:dyDescent="0.25">
@@ -7287,18 +7718,18 @@
       <c r="BB48" s="8"/>
       <c r="BC48" s="6"/>
       <c r="BD48" s="7"/>
-      <c r="BE48" s="7" t="s">
-        <v>70</v>
-      </c>
+      <c r="BE48" s="7"/>
       <c r="BF48" s="7"/>
-      <c r="BG48" s="7"/>
-      <c r="BH48" s="7"/>
+      <c r="BG48" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH48" s="48"/>
       <c r="BI48" s="7"/>
       <c r="BJ48" s="7"/>
-      <c r="BK48" s="7"/>
-      <c r="BL48" s="7"/>
-      <c r="BM48" s="7"/>
-      <c r="BN48" s="7"/>
+      <c r="BK48" s="48"/>
+      <c r="BL48" s="48"/>
+      <c r="BM48" s="48"/>
+      <c r="BN48" s="48"/>
       <c r="BO48" s="7"/>
       <c r="BP48" s="7"/>
       <c r="BQ48" s="7"/>
@@ -7309,7 +7740,7 @@
       <c r="BV48" s="7"/>
       <c r="BW48" s="7"/>
       <c r="BX48" s="7"/>
-      <c r="BY48" s="51"/>
+      <c r="BY48" s="7"/>
       <c r="BZ48" s="7"/>
       <c r="CA48" s="7"/>
       <c r="CB48" s="7"/>
@@ -7372,17 +7803,16 @@
       <c r="BB49" s="8"/>
       <c r="BC49" s="6"/>
       <c r="BD49" s="7"/>
-      <c r="BE49" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="BG49" s="7"/>
-      <c r="BH49" s="7"/>
-      <c r="BI49" s="7"/>
-      <c r="BJ49" s="7"/>
-      <c r="BK49" s="7"/>
-      <c r="BL49" s="7"/>
-      <c r="BM49" s="7"/>
-      <c r="BN49" s="7"/>
+      <c r="BE49" s="7"/>
+      <c r="BF49" s="7"/>
+      <c r="BG49" s="48"/>
+      <c r="BH49" s="48"/>
+      <c r="BI49" s="48"/>
+      <c r="BJ49" s="48"/>
+      <c r="BK49" s="48"/>
+      <c r="BL49" s="48"/>
+      <c r="BM49" s="48"/>
+      <c r="BN49" s="48"/>
       <c r="BO49" s="7"/>
       <c r="BP49" s="7"/>
       <c r="BQ49" s="7"/>
@@ -7456,16 +7886,17 @@
       <c r="BB50" s="8"/>
       <c r="BC50" s="6"/>
       <c r="BD50" s="7"/>
-      <c r="BE50" s="7"/>
-      <c r="BF50" s="7"/>
+      <c r="BE50" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="BG50" s="7"/>
       <c r="BH50" s="7"/>
-      <c r="BI50" s="7"/>
-      <c r="BJ50" s="7"/>
+      <c r="BI50" s="48"/>
+      <c r="BJ50" s="48"/>
       <c r="BK50" s="7"/>
       <c r="BL50" s="7"/>
       <c r="BM50" s="7"/>
-      <c r="BN50" s="7"/>
+      <c r="BN50" s="48"/>
       <c r="BO50" s="7"/>
       <c r="BP50" s="7"/>
       <c r="BQ50" s="7"/>
@@ -7539,23 +7970,23 @@
       <c r="BB51" s="8"/>
       <c r="BC51" s="6"/>
       <c r="BD51" s="7"/>
-      <c r="BE51" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF51" s="48"/>
-      <c r="BG51" s="48"/>
+      <c r="BE51" s="7"/>
+      <c r="BF51" s="7"/>
+      <c r="BG51" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="BH51" s="48"/>
-      <c r="BI51" s="48"/>
-      <c r="BJ51" s="48"/>
+      <c r="BI51" s="7"/>
+      <c r="BJ51" s="7"/>
       <c r="BK51" s="48"/>
       <c r="BL51" s="48"/>
       <c r="BM51" s="48"/>
       <c r="BN51" s="48"/>
-      <c r="BO51" s="48"/>
-      <c r="BP51" s="48"/>
-      <c r="BQ51" s="48"/>
-      <c r="BR51" s="48"/>
-      <c r="BS51" s="48"/>
+      <c r="BO51" s="7"/>
+      <c r="BP51" s="7"/>
+      <c r="BQ51" s="7"/>
+      <c r="BR51" s="7"/>
+      <c r="BS51" s="7"/>
       <c r="BT51" s="7"/>
       <c r="BU51" s="7"/>
       <c r="BV51" s="7"/>
@@ -7625,11 +8056,11 @@
       <c r="BC52" s="6"/>
       <c r="BD52" s="7"/>
       <c r="BE52" s="7"/>
-      <c r="BF52" s="7"/>
+      <c r="BF52" s="48"/>
       <c r="BG52" s="7"/>
       <c r="BH52" s="7"/>
-      <c r="BI52" s="7"/>
-      <c r="BJ52" s="7"/>
+      <c r="BI52" s="48"/>
+      <c r="BJ52" s="48"/>
       <c r="BK52" s="7"/>
       <c r="BL52" s="7"/>
       <c r="BM52" s="7"/>
@@ -7707,8 +8138,9 @@
       <c r="BB53" s="8"/>
       <c r="BC53" s="6"/>
       <c r="BD53" s="7"/>
-      <c r="BE53" s="7"/>
-      <c r="BF53" s="7"/>
+      <c r="BE53" s="7" t="s">
+        <v>86</v>
+      </c>
       <c r="BG53" s="7"/>
       <c r="BH53" s="7"/>
       <c r="BI53" s="7"/>
@@ -7792,7 +8224,9 @@
       <c r="BD54" s="7"/>
       <c r="BE54" s="7"/>
       <c r="BF54" s="7"/>
-      <c r="BG54" s="7"/>
+      <c r="BG54" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="BH54" s="7"/>
       <c r="BI54" s="7"/>
       <c r="BJ54" s="7"/>
@@ -7874,8 +8308,10 @@
       <c r="BC55" s="6"/>
       <c r="BD55" s="7"/>
       <c r="BE55" s="7"/>
-      <c r="BF55" s="7"/>
-      <c r="BG55" s="7"/>
+      <c r="BF55" s="48"/>
+      <c r="BG55" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="BH55" s="7"/>
       <c r="BI55" s="7"/>
       <c r="BJ55" s="7"/>
@@ -7899,7 +8335,7 @@
       <c r="CB55" s="7"/>
       <c r="CC55" s="8"/>
     </row>
-    <row r="56" spans="1:81" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -7950,14 +8386,14 @@
       <c r="AV56" s="11"/>
       <c r="AW56" s="11"/>
       <c r="AX56" s="11"/>
-      <c r="AY56" s="13"/>
+      <c r="AY56" s="11"/>
       <c r="AZ56" s="11"/>
       <c r="BA56" s="7"/>
       <c r="BB56" s="8"/>
       <c r="BC56" s="6"/>
       <c r="BD56" s="7"/>
       <c r="BE56" s="7"/>
-      <c r="BF56" s="7"/>
+      <c r="BF56" s="48"/>
       <c r="BG56" s="7"/>
       <c r="BH56" s="7"/>
       <c r="BI56" s="7"/>
@@ -7982,7 +8418,7 @@
       <c r="CB56" s="7"/>
       <c r="CC56" s="8"/>
     </row>
-    <row r="57" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:81" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -8038,7 +8474,9 @@
       <c r="BA57" s="7"/>
       <c r="BB57" s="8"/>
       <c r="BC57" s="6"/>
-      <c r="BD57" s="7"/>
+      <c r="BD57" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="BE57" s="7"/>
       <c r="BF57" s="7"/>
       <c r="BG57" s="7"/>
@@ -8065,64 +8503,66 @@
       <c r="CB57" s="7"/>
       <c r="CC57" s="8"/>
     </row>
-    <row r="58" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:81" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
-      <c r="M58" s="9"/>
-      <c r="N58" s="9"/>
-      <c r="O58" s="9"/>
-      <c r="P58" s="9"/>
-      <c r="Q58" s="9"/>
-      <c r="R58" s="9"/>
-      <c r="S58" s="9"/>
-      <c r="T58" s="9"/>
-      <c r="U58" s="9"/>
-      <c r="V58" s="9"/>
-      <c r="W58" s="9"/>
-      <c r="X58" s="9"/>
-      <c r="Y58" s="9"/>
-      <c r="Z58" s="9"/>
-      <c r="AA58" s="9"/>
-      <c r="AB58" s="9"/>
-      <c r="AC58" s="9"/>
-      <c r="AD58" s="9"/>
-      <c r="AE58" s="9"/>
-      <c r="AF58" s="9"/>
-      <c r="AG58" s="9"/>
-      <c r="AH58" s="9"/>
-      <c r="AI58" s="9"/>
-      <c r="AJ58" s="9"/>
-      <c r="AK58" s="9"/>
-      <c r="AL58" s="9"/>
-      <c r="AM58" s="9"/>
-      <c r="AN58" s="9"/>
-      <c r="AO58" s="9"/>
-      <c r="AP58" s="9"/>
-      <c r="AQ58" s="9"/>
-      <c r="AR58" s="9"/>
-      <c r="AS58" s="9"/>
-      <c r="AT58" s="9"/>
-      <c r="AU58" s="9"/>
-      <c r="AV58" s="9"/>
-      <c r="AW58" s="9"/>
-      <c r="AX58" s="9"/>
-      <c r="AY58" s="9"/>
-      <c r="AZ58" s="9"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="11"/>
+      <c r="T58" s="11"/>
+      <c r="U58" s="11"/>
+      <c r="V58" s="11"/>
+      <c r="W58" s="11"/>
+      <c r="X58" s="11"/>
+      <c r="Y58" s="11"/>
+      <c r="Z58" s="11"/>
+      <c r="AA58" s="11"/>
+      <c r="AB58" s="11"/>
+      <c r="AC58" s="11"/>
+      <c r="AD58" s="11"/>
+      <c r="AE58" s="11"/>
+      <c r="AF58" s="11"/>
+      <c r="AG58" s="11"/>
+      <c r="AH58" s="11"/>
+      <c r="AI58" s="11"/>
+      <c r="AJ58" s="11"/>
+      <c r="AK58" s="11"/>
+      <c r="AL58" s="11"/>
+      <c r="AM58" s="11"/>
+      <c r="AN58" s="11"/>
+      <c r="AO58" s="11"/>
+      <c r="AP58" s="11"/>
+      <c r="AQ58" s="11"/>
+      <c r="AR58" s="11"/>
+      <c r="AS58" s="11"/>
+      <c r="AT58" s="11"/>
+      <c r="AU58" s="11"/>
+      <c r="AV58" s="11"/>
+      <c r="AW58" s="11"/>
+      <c r="AX58" s="11"/>
+      <c r="AY58" s="13"/>
+      <c r="AZ58" s="11"/>
       <c r="BA58" s="7"/>
       <c r="BB58" s="8"/>
       <c r="BC58" s="6"/>
       <c r="BD58" s="7"/>
-      <c r="BE58" s="7"/>
+      <c r="BE58" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="BF58" s="7"/>
       <c r="BG58" s="7"/>
       <c r="BH58" s="7"/>
@@ -8150,62 +8590,64 @@
     </row>
     <row r="59" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="9"/>
-      <c r="M59" s="9"/>
-      <c r="N59" s="9"/>
-      <c r="O59" s="9"/>
-      <c r="P59" s="9"/>
-      <c r="Q59" s="9"/>
-      <c r="R59" s="9"/>
-      <c r="S59" s="9"/>
-      <c r="T59" s="9"/>
-      <c r="U59" s="9"/>
-      <c r="V59" s="9"/>
-      <c r="W59" s="9"/>
-      <c r="X59" s="9"/>
-      <c r="Y59" s="9"/>
-      <c r="Z59" s="9"/>
-      <c r="AA59" s="9"/>
-      <c r="AB59" s="9"/>
-      <c r="AC59" s="9"/>
-      <c r="AD59" s="9"/>
-      <c r="AE59" s="9"/>
-      <c r="AF59" s="9"/>
-      <c r="AG59" s="9"/>
-      <c r="AH59" s="9"/>
-      <c r="AI59" s="9"/>
-      <c r="AJ59" s="9"/>
-      <c r="AK59" s="9"/>
-      <c r="AL59" s="9"/>
-      <c r="AM59" s="9"/>
-      <c r="AN59" s="9"/>
-      <c r="AO59" s="9"/>
-      <c r="AP59" s="9"/>
-      <c r="AQ59" s="9"/>
-      <c r="AR59" s="9"/>
-      <c r="AS59" s="9"/>
-      <c r="AT59" s="9"/>
-      <c r="AU59" s="9"/>
-      <c r="AV59" s="9"/>
-      <c r="AW59" s="9"/>
-      <c r="AX59" s="9"/>
-      <c r="AY59" s="9"/>
-      <c r="AZ59" s="9"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="11"/>
+      <c r="T59" s="11"/>
+      <c r="U59" s="11"/>
+      <c r="V59" s="11"/>
+      <c r="W59" s="11"/>
+      <c r="X59" s="11"/>
+      <c r="Y59" s="11"/>
+      <c r="Z59" s="11"/>
+      <c r="AA59" s="11"/>
+      <c r="AB59" s="11"/>
+      <c r="AC59" s="11"/>
+      <c r="AD59" s="11"/>
+      <c r="AE59" s="11"/>
+      <c r="AF59" s="11"/>
+      <c r="AG59" s="11"/>
+      <c r="AH59" s="11"/>
+      <c r="AI59" s="11"/>
+      <c r="AJ59" s="11"/>
+      <c r="AK59" s="11"/>
+      <c r="AL59" s="11"/>
+      <c r="AM59" s="11"/>
+      <c r="AN59" s="11"/>
+      <c r="AO59" s="11"/>
+      <c r="AP59" s="11"/>
+      <c r="AQ59" s="11"/>
+      <c r="AR59" s="11"/>
+      <c r="AS59" s="11"/>
+      <c r="AT59" s="11"/>
+      <c r="AU59" s="11"/>
+      <c r="AV59" s="11"/>
+      <c r="AW59" s="11"/>
+      <c r="AX59" s="11"/>
+      <c r="AY59" s="11"/>
+      <c r="AZ59" s="11"/>
       <c r="BA59" s="7"/>
       <c r="BB59" s="8"/>
       <c r="BC59" s="6"/>
       <c r="BD59" s="7"/>
-      <c r="BE59" s="7"/>
+      <c r="BE59" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="BF59" s="7"/>
       <c r="BG59" s="7"/>
       <c r="BH59" s="7"/>
@@ -8288,7 +8730,9 @@
       <c r="BB60" s="8"/>
       <c r="BC60" s="6"/>
       <c r="BD60" s="7"/>
-      <c r="BE60" s="7"/>
+      <c r="BE60" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="BF60" s="7"/>
       <c r="BG60" s="7"/>
       <c r="BH60" s="7"/>
@@ -8315,6 +8759,58 @@
       <c r="CC60" s="8"/>
     </row>
     <row r="61" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="9"/>
+      <c r="U61" s="9"/>
+      <c r="V61" s="9"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="9"/>
+      <c r="Y61" s="9"/>
+      <c r="Z61" s="9"/>
+      <c r="AA61" s="9"/>
+      <c r="AB61" s="9"/>
+      <c r="AC61" s="9"/>
+      <c r="AD61" s="9"/>
+      <c r="AE61" s="9"/>
+      <c r="AF61" s="9"/>
+      <c r="AG61" s="9"/>
+      <c r="AH61" s="9"/>
+      <c r="AI61" s="9"/>
+      <c r="AJ61" s="9"/>
+      <c r="AK61" s="9"/>
+      <c r="AL61" s="9"/>
+      <c r="AM61" s="9"/>
+      <c r="AN61" s="9"/>
+      <c r="AO61" s="9"/>
+      <c r="AP61" s="9"/>
+      <c r="AQ61" s="9"/>
+      <c r="AR61" s="9"/>
+      <c r="AS61" s="9"/>
+      <c r="AT61" s="9"/>
+      <c r="AU61" s="9"/>
+      <c r="AV61" s="9"/>
+      <c r="AW61" s="9"/>
+      <c r="AX61" s="9"/>
+      <c r="AY61" s="9"/>
+      <c r="AZ61" s="9"/>
       <c r="BA61" s="7"/>
       <c r="BB61" s="8"/>
       <c r="BC61" s="6"/>
@@ -8346,10 +8842,64 @@
       <c r="CC61" s="8"/>
     </row>
     <row r="62" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A62" s="6"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
+      <c r="T62" s="9"/>
+      <c r="U62" s="9"/>
+      <c r="V62" s="9"/>
+      <c r="W62" s="9"/>
+      <c r="X62" s="9"/>
+      <c r="Y62" s="9"/>
+      <c r="Z62" s="9"/>
+      <c r="AA62" s="9"/>
+      <c r="AB62" s="9"/>
+      <c r="AC62" s="9"/>
+      <c r="AD62" s="9"/>
+      <c r="AE62" s="9"/>
+      <c r="AF62" s="9"/>
+      <c r="AG62" s="9"/>
+      <c r="AH62" s="9"/>
+      <c r="AI62" s="9"/>
+      <c r="AJ62" s="9"/>
+      <c r="AK62" s="9"/>
+      <c r="AL62" s="9"/>
+      <c r="AM62" s="9"/>
+      <c r="AN62" s="9"/>
+      <c r="AO62" s="9"/>
+      <c r="AP62" s="9"/>
+      <c r="AQ62" s="9"/>
+      <c r="AR62" s="9"/>
+      <c r="AS62" s="9"/>
+      <c r="AT62" s="9"/>
+      <c r="AU62" s="9"/>
+      <c r="AV62" s="9"/>
+      <c r="AW62" s="9"/>
+      <c r="AX62" s="9"/>
+      <c r="AY62" s="9"/>
+      <c r="AZ62" s="9"/>
       <c r="BA62" s="7"/>
       <c r="BB62" s="8"/>
       <c r="BC62" s="6"/>
-      <c r="BD62" s="7"/>
+      <c r="BD62" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="BE62" s="7"/>
       <c r="BF62" s="7"/>
       <c r="BG62" s="7"/>
@@ -8377,9 +8927,65 @@
       <c r="CC62" s="8"/>
     </row>
     <row r="63" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A63" s="6"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="9"/>
+      <c r="U63" s="9"/>
+      <c r="V63" s="9"/>
+      <c r="W63" s="9"/>
+      <c r="X63" s="9"/>
+      <c r="Y63" s="9"/>
+      <c r="Z63" s="9"/>
+      <c r="AA63" s="9"/>
+      <c r="AB63" s="9"/>
+      <c r="AC63" s="9"/>
+      <c r="AD63" s="9"/>
+      <c r="AE63" s="9"/>
+      <c r="AF63" s="9"/>
+      <c r="AG63" s="9"/>
+      <c r="AH63" s="9"/>
+      <c r="AI63" s="9"/>
+      <c r="AJ63" s="9"/>
+      <c r="AK63" s="9"/>
+      <c r="AL63" s="9"/>
+      <c r="AM63" s="9"/>
+      <c r="AN63" s="9"/>
+      <c r="AO63" s="9"/>
+      <c r="AP63" s="9"/>
+      <c r="AQ63" s="9"/>
+      <c r="AR63" s="9"/>
+      <c r="AS63" s="9"/>
+      <c r="AT63" s="9"/>
+      <c r="AU63" s="9"/>
+      <c r="AV63" s="9"/>
+      <c r="AW63" s="9"/>
+      <c r="AX63" s="9"/>
+      <c r="AY63" s="9"/>
+      <c r="AZ63" s="9"/>
+      <c r="BA63" s="7"/>
+      <c r="BB63" s="8"/>
       <c r="BC63" s="6"/>
       <c r="BD63" s="7"/>
-      <c r="BE63" s="7"/>
+      <c r="BE63" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="BF63" s="7"/>
       <c r="BG63" s="7"/>
       <c r="BH63" s="7"/>
@@ -8402,8 +9008,64 @@
       <c r="BY63" s="7"/>
       <c r="BZ63" s="7"/>
       <c r="CA63" s="7"/>
+      <c r="CB63" s="7"/>
+      <c r="CC63" s="8"/>
     </row>
     <row r="64" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A64" s="6"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="9"/>
+      <c r="S64" s="9"/>
+      <c r="T64" s="9"/>
+      <c r="U64" s="9"/>
+      <c r="V64" s="9"/>
+      <c r="W64" s="9"/>
+      <c r="X64" s="9"/>
+      <c r="Y64" s="9"/>
+      <c r="Z64" s="9"/>
+      <c r="AA64" s="9"/>
+      <c r="AB64" s="9"/>
+      <c r="AC64" s="9"/>
+      <c r="AD64" s="9"/>
+      <c r="AE64" s="9"/>
+      <c r="AF64" s="9"/>
+      <c r="AG64" s="9"/>
+      <c r="AH64" s="9"/>
+      <c r="AI64" s="9"/>
+      <c r="AJ64" s="9"/>
+      <c r="AK64" s="9"/>
+      <c r="AL64" s="9"/>
+      <c r="AM64" s="9"/>
+      <c r="AN64" s="9"/>
+      <c r="AO64" s="9"/>
+      <c r="AP64" s="9"/>
+      <c r="AQ64" s="9"/>
+      <c r="AR64" s="9"/>
+      <c r="AS64" s="9"/>
+      <c r="AT64" s="9"/>
+      <c r="AU64" s="9"/>
+      <c r="AV64" s="9"/>
+      <c r="AW64" s="9"/>
+      <c r="AX64" s="9"/>
+      <c r="AY64" s="9"/>
+      <c r="AZ64" s="9"/>
+      <c r="BA64" s="7"/>
+      <c r="BB64" s="8"/>
       <c r="BC64" s="6"/>
       <c r="BD64" s="7"/>
       <c r="BE64" s="7"/>
@@ -8429,10 +9091,68 @@
       <c r="BY64" s="7"/>
       <c r="BZ64" s="7"/>
       <c r="CA64" s="7"/>
+      <c r="CB64" s="7"/>
+      <c r="CC64" s="8"/>
     </row>
-    <row r="65" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A65" s="6"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="9"/>
+      <c r="U65" s="9"/>
+      <c r="V65" s="9"/>
+      <c r="W65" s="9"/>
+      <c r="X65" s="9"/>
+      <c r="Y65" s="9"/>
+      <c r="Z65" s="9"/>
+      <c r="AA65" s="9"/>
+      <c r="AB65" s="9"/>
+      <c r="AC65" s="9"/>
+      <c r="AD65" s="9"/>
+      <c r="AE65" s="9"/>
+      <c r="AF65" s="9"/>
+      <c r="AG65" s="9"/>
+      <c r="AH65" s="9"/>
+      <c r="AI65" s="9"/>
+      <c r="AJ65" s="9"/>
+      <c r="AK65" s="9"/>
+      <c r="AL65" s="9"/>
+      <c r="AM65" s="9"/>
+      <c r="AN65" s="9"/>
+      <c r="AO65" s="9"/>
+      <c r="AP65" s="9"/>
+      <c r="AQ65" s="9"/>
+      <c r="AR65" s="9"/>
+      <c r="AS65" s="9"/>
+      <c r="AT65" s="9"/>
+      <c r="AU65" s="9"/>
+      <c r="AV65" s="9"/>
+      <c r="AW65" s="9"/>
+      <c r="AX65" s="9"/>
+      <c r="AY65" s="9"/>
+      <c r="AZ65" s="9"/>
+      <c r="BA65" s="7"/>
+      <c r="BB65" s="8"/>
       <c r="BC65" s="6"/>
-      <c r="BD65" s="7"/>
+      <c r="BD65" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="BE65" s="7"/>
       <c r="BF65" s="7"/>
       <c r="BG65" s="7"/>
@@ -8456,8 +9176,69 @@
       <c r="BY65" s="7"/>
       <c r="BZ65" s="7"/>
       <c r="CA65" s="7"/>
+      <c r="CB65" s="7"/>
+      <c r="CC65" s="8"/>
     </row>
-    <row r="66" spans="55:79" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A66" s="6"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="9"/>
+      <c r="U66" s="9"/>
+      <c r="V66" s="9"/>
+      <c r="W66" s="9"/>
+      <c r="X66" s="9"/>
+      <c r="Y66" s="9"/>
+      <c r="Z66" s="9"/>
+      <c r="AA66" s="9"/>
+      <c r="AB66" s="9"/>
+      <c r="AC66" s="9"/>
+      <c r="AD66" s="9"/>
+      <c r="AE66" s="9"/>
+      <c r="AF66" s="9"/>
+      <c r="AG66" s="9"/>
+      <c r="AH66" s="9"/>
+      <c r="AI66" s="9"/>
+      <c r="AJ66" s="9"/>
+      <c r="AK66" s="9"/>
+      <c r="AL66" s="9"/>
+      <c r="AM66" s="9"/>
+      <c r="AN66" s="9"/>
+      <c r="AO66" s="9"/>
+      <c r="AP66" s="9"/>
+      <c r="AQ66" s="9"/>
+      <c r="AR66" s="9"/>
+      <c r="AS66" s="9"/>
+      <c r="AT66" s="9"/>
+      <c r="AU66" s="9"/>
+      <c r="AV66" s="9"/>
+      <c r="AW66" s="9"/>
+      <c r="AX66" s="9"/>
+      <c r="AY66" s="9"/>
+      <c r="AZ66" s="9"/>
+      <c r="BA66" s="7"/>
+      <c r="BB66" s="8"/>
+      <c r="BC66" s="6"/>
+      <c r="BD66" s="7"/>
+      <c r="BE66" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="BF66" s="7"/>
       <c r="BG66" s="7"/>
       <c r="BH66" s="7"/>
@@ -8478,9 +9259,233 @@
       <c r="BW66" s="7"/>
       <c r="BX66" s="7"/>
       <c r="BY66" s="7"/>
+      <c r="BZ66" s="7"/>
+      <c r="CA66" s="7"/>
+      <c r="CB66" s="7"/>
+      <c r="CC66" s="8"/>
+    </row>
+    <row r="67" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A67" s="6"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="9"/>
+      <c r="R67" s="9"/>
+      <c r="S67" s="9"/>
+      <c r="T67" s="9"/>
+      <c r="U67" s="9"/>
+      <c r="V67" s="9"/>
+      <c r="W67" s="9"/>
+      <c r="X67" s="9"/>
+      <c r="Y67" s="9"/>
+      <c r="Z67" s="9"/>
+      <c r="AA67" s="9"/>
+      <c r="AB67" s="9"/>
+      <c r="AC67" s="9"/>
+      <c r="AD67" s="9"/>
+      <c r="AE67" s="9"/>
+      <c r="AF67" s="9"/>
+      <c r="AG67" s="9"/>
+      <c r="AH67" s="9"/>
+      <c r="AI67" s="9"/>
+      <c r="AJ67" s="9"/>
+      <c r="AK67" s="9"/>
+      <c r="AL67" s="9"/>
+      <c r="AM67" s="9"/>
+      <c r="AN67" s="9"/>
+      <c r="AO67" s="9"/>
+      <c r="AP67" s="9"/>
+      <c r="AQ67" s="9"/>
+      <c r="AR67" s="9"/>
+      <c r="AS67" s="9"/>
+      <c r="AT67" s="9"/>
+      <c r="AU67" s="9"/>
+      <c r="AV67" s="9"/>
+      <c r="AW67" s="9"/>
+      <c r="AX67" s="9"/>
+      <c r="AY67" s="9"/>
+      <c r="AZ67" s="9"/>
+      <c r="BA67" s="7"/>
+      <c r="BB67" s="8"/>
+      <c r="BC67" s="6"/>
+      <c r="BD67" s="7"/>
+      <c r="BE67" s="7"/>
+      <c r="BF67" s="7"/>
+      <c r="BG67" s="7"/>
+      <c r="BH67" s="7"/>
+      <c r="BI67" s="7"/>
+      <c r="BJ67" s="7"/>
+      <c r="BK67" s="7"/>
+      <c r="BL67" s="7"/>
+      <c r="BM67" s="7"/>
+      <c r="BN67" s="7"/>
+      <c r="BO67" s="7"/>
+      <c r="BP67" s="7"/>
+      <c r="BQ67" s="7"/>
+      <c r="BR67" s="7"/>
+      <c r="BS67" s="7"/>
+      <c r="BT67" s="7"/>
+      <c r="BU67" s="7"/>
+      <c r="BV67" s="7"/>
+      <c r="BW67" s="7"/>
+      <c r="BX67" s="7"/>
+      <c r="BY67" s="7"/>
+      <c r="BZ67" s="7"/>
+      <c r="CA67" s="7"/>
+      <c r="CB67" s="7"/>
+      <c r="CC67" s="8"/>
+    </row>
+    <row r="68" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="BA68" s="7"/>
+      <c r="BB68" s="8"/>
+      <c r="BC68" s="6"/>
+      <c r="BD68" s="7"/>
+      <c r="BE68" s="7"/>
+      <c r="BF68" s="7"/>
+      <c r="BG68" s="7"/>
+      <c r="BH68" s="7"/>
+      <c r="BI68" s="7"/>
+      <c r="BJ68" s="7"/>
+      <c r="BK68" s="7"/>
+      <c r="BL68" s="7"/>
+      <c r="BM68" s="7"/>
+      <c r="BN68" s="7"/>
+      <c r="BO68" s="7"/>
+      <c r="BP68" s="7"/>
+      <c r="BQ68" s="7"/>
+      <c r="BR68" s="7"/>
+      <c r="BS68" s="7"/>
+      <c r="BT68" s="7"/>
+      <c r="BU68" s="7"/>
+      <c r="BV68" s="7"/>
+      <c r="BW68" s="7"/>
+      <c r="BX68" s="7"/>
+      <c r="BY68" s="7"/>
+      <c r="BZ68" s="7"/>
+      <c r="CA68" s="7"/>
+      <c r="CB68" s="7"/>
+      <c r="CC68" s="8"/>
+    </row>
+    <row r="69" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="BC69" s="6"/>
+      <c r="BD69" s="7"/>
+      <c r="BE69" s="7"/>
+      <c r="BF69" s="7"/>
+      <c r="BG69" s="7"/>
+      <c r="BH69" s="7"/>
+      <c r="BI69" s="7"/>
+      <c r="BJ69" s="7"/>
+      <c r="BK69" s="7"/>
+      <c r="BL69" s="7"/>
+      <c r="BM69" s="7"/>
+      <c r="BN69" s="7"/>
+      <c r="BO69" s="7"/>
+      <c r="BP69" s="7"/>
+      <c r="BQ69" s="7"/>
+      <c r="BR69" s="7"/>
+      <c r="BS69" s="7"/>
+      <c r="BT69" s="7"/>
+      <c r="BU69" s="7"/>
+      <c r="BV69" s="7"/>
+      <c r="BW69" s="7"/>
+      <c r="BX69" s="7"/>
+      <c r="BY69" s="7"/>
+      <c r="BZ69" s="7"/>
+      <c r="CA69" s="7"/>
+    </row>
+    <row r="70" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="BC70" s="6"/>
+      <c r="BD70" s="7"/>
+      <c r="BE70" s="7"/>
+      <c r="BF70" s="7"/>
+      <c r="BG70" s="7"/>
+      <c r="BH70" s="7"/>
+      <c r="BI70" s="7"/>
+      <c r="BJ70" s="7"/>
+      <c r="BK70" s="7"/>
+      <c r="BL70" s="7"/>
+      <c r="BM70" s="7"/>
+      <c r="BN70" s="7"/>
+      <c r="BO70" s="7"/>
+      <c r="BP70" s="7"/>
+      <c r="BQ70" s="7"/>
+      <c r="BR70" s="7"/>
+      <c r="BS70" s="7"/>
+      <c r="BT70" s="7"/>
+      <c r="BU70" s="7"/>
+      <c r="BV70" s="7"/>
+      <c r="BW70" s="7"/>
+      <c r="BX70" s="7"/>
+      <c r="BY70" s="7"/>
+      <c r="BZ70" s="7"/>
+      <c r="CA70" s="7"/>
+    </row>
+    <row r="71" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="BC71" s="6"/>
+      <c r="BD71" s="7"/>
+      <c r="BE71" s="7"/>
+      <c r="BF71" s="7"/>
+      <c r="BG71" s="7"/>
+      <c r="BH71" s="7"/>
+      <c r="BI71" s="7"/>
+      <c r="BJ71" s="7"/>
+      <c r="BK71" s="7"/>
+      <c r="BL71" s="7"/>
+      <c r="BM71" s="7"/>
+      <c r="BN71" s="7"/>
+      <c r="BO71" s="7"/>
+      <c r="BP71" s="7"/>
+      <c r="BQ71" s="7"/>
+      <c r="BR71" s="7"/>
+      <c r="BS71" s="7"/>
+      <c r="BT71" s="7"/>
+      <c r="BU71" s="7"/>
+      <c r="BV71" s="7"/>
+      <c r="BW71" s="7"/>
+      <c r="BX71" s="7"/>
+      <c r="BY71" s="7"/>
+      <c r="BZ71" s="7"/>
+      <c r="CA71" s="7"/>
+    </row>
+    <row r="72" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="BF72" s="7"/>
+      <c r="BG72" s="7"/>
+      <c r="BH72" s="7"/>
+      <c r="BI72" s="7"/>
+      <c r="BJ72" s="7"/>
+      <c r="BK72" s="7"/>
+      <c r="BL72" s="7"/>
+      <c r="BM72" s="7"/>
+      <c r="BN72" s="7"/>
+      <c r="BO72" s="7"/>
+      <c r="BP72" s="7"/>
+      <c r="BQ72" s="7"/>
+      <c r="BR72" s="7"/>
+      <c r="BS72" s="7"/>
+      <c r="BT72" s="7"/>
+      <c r="BU72" s="7"/>
+      <c r="BV72" s="7"/>
+      <c r="BW72" s="7"/>
+      <c r="BX72" s="7"/>
+      <c r="BY72" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="AZ1:BI1"/>
+    <mergeCell ref="BJ1:BS1"/>
+    <mergeCell ref="AN11:AU11"/>
     <mergeCell ref="A5:BB5"/>
     <mergeCell ref="BC5:CC5"/>
     <mergeCell ref="BT1:CC1"/>
@@ -8495,110 +9500,155 @@
     <mergeCell ref="T1:AM1"/>
     <mergeCell ref="AN1:AO1"/>
     <mergeCell ref="AP1:AY1"/>
-    <mergeCell ref="AZ1:BI1"/>
-    <mergeCell ref="BJ1:BS1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="69" orientation="landscape" verticalDpi="400" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="60" max="81" man="1"/>
-  </rowBreaks>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId4" name="TextBox1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="2075" r:id="rId4" name="OptionButton2">
+          <controlPr autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:col>29</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:col>37</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2051" r:id="rId4" name="TextBox1"/>
+        <control shapeId="2075" r:id="rId4" name="OptionButton2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId6" name="TextBox2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="2074" r:id="rId6" name="OptionButton1">
+          <controlPr autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>6</xdr:col>
+                <xdr:col>29</xdr:col>
                 <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:col>38</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2052" r:id="rId6" name="TextBox2"/>
+        <control shapeId="2074" r:id="rId6" name="OptionButton1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId7" name="ScrollBar1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+        <control shapeId="2054" r:id="rId8" name="ScrollBar1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>51</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>52</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:col>51</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2054" r:id="rId7" name="ScrollBar1"/>
+        <control shapeId="2054" r:id="rId8" name="ScrollBar1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId9" name="Button 1">
+        <control shapeId="2052" r:id="rId10" name="TextBox2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>28</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2052" r:id="rId10" name="TextBox2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2051" r:id="rId12" name="TextBox1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>28</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2051" r:id="rId12" name="TextBox1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2049" r:id="rId14" name="Button 1">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!Button5_Click">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
                 <xdr:row>8</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>32</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>9</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
+                <xdr:rowOff>190500</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -8607,20 +9657,20 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId10" name="Button 2">
+        <control shapeId="2050" r:id="rId15" name="Button 2">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!Button5_Click">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
                 <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>32</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -8629,20 +9679,20 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId11" name="Button 5">
+        <control shapeId="2053" r:id="rId16" name="Button 5">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!Button8_Click">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
-                <xdr:col>39</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
+                <xdr:col>48</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
                 <xdr:row>8</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>190500</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>46</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
+                <xdr:col>52</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
                 <xdr:row>11</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:rowOff>123825</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -8651,7 +9701,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2055" r:id="rId12" name="Button 7">
+        <control shapeId="2055" r:id="rId17" name="Button 7">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!Button10_Click">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -8673,18 +9723,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2057" r:id="rId13" name="Check Box 9">
+        <control shapeId="2057" r:id="rId18" name="Check Box 9">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>49</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
+                <xdr:col>50</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>27</xdr:row>
                 <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>51</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
+                <xdr:colOff>85725</xdr:colOff>
                 <xdr:row>29</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -8695,7 +9745,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2058" r:id="rId14" name="Check Box 10">
+        <control shapeId="2058" r:id="rId19" name="Check Box 10">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -8717,7 +9767,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2059" r:id="rId15" name="Check Box 11">
+        <control shapeId="2059" r:id="rId20" name="Check Box 11">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -8739,7 +9789,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2060" r:id="rId16" name="Check Box 12">
+        <control shapeId="2060" r:id="rId21" name="Check Box 12">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -8761,7 +9811,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2061" r:id="rId17" name="Check Box 13">
+        <control shapeId="2061" r:id="rId22" name="Check Box 13">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -8783,18 +9833,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2062" r:id="rId18" name="Check Box 14">
+        <control shapeId="2062" r:id="rId23" name="Check Box 14">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>50</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>17</xdr:row>
                 <xdr:rowOff>180975</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>51</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
+                <xdr:colOff>57150</xdr:colOff>
                 <xdr:row>19</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -8805,7 +9855,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2063" r:id="rId19" name="Check Box 15">
+        <control shapeId="2063" r:id="rId24" name="Check Box 15">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -8827,7 +9877,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2064" r:id="rId20" name="Check Box 16">
+        <control shapeId="2064" r:id="rId25" name="Check Box 16">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -8849,18 +9899,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2065" r:id="rId21" name="Check Box 17">
+        <control shapeId="2065" r:id="rId26" name="Check Box 17">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>50</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>20</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>51</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
+                <xdr:colOff>76200</xdr:colOff>
                 <xdr:row>22</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </to>
@@ -8871,7 +9921,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2066" r:id="rId22" name="Check Box 18">
+        <control shapeId="2066" r:id="rId27" name="Check Box 18">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -8893,18 +9943,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2067" r:id="rId23" name="Check Box 19">
+        <control shapeId="2067" r:id="rId28" name="Check Box 19">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>50</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>21</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>51</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
+                <xdr:colOff>76200</xdr:colOff>
                 <xdr:row>23</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </to>
@@ -8915,18 +9965,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2068" r:id="rId24" name="Check Box 20">
+        <control shapeId="2068" r:id="rId29" name="Check Box 20">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>50</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>22</xdr:row>
                 <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>51</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
+                <xdr:colOff>76200</xdr:colOff>
                 <xdr:row>24</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
@@ -8937,18 +9987,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2069" r:id="rId25" name="Check Box 21">
+        <control shapeId="2069" r:id="rId30" name="Check Box 21">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>50</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>23</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>51</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
+                <xdr:colOff>76200</xdr:colOff>
                 <xdr:row>25</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </to>
@@ -8959,7 +10009,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2070" r:id="rId26" name="Check Box 22">
+        <control shapeId="2070" r:id="rId31" name="Check Box 22">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -8981,18 +10031,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2071" r:id="rId27" name="Check Box 23">
+        <control shapeId="2071" r:id="rId32" name="Check Box 23">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>50</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>25</xdr:row>
                 <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>51</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
+                <xdr:colOff>76200</xdr:colOff>
                 <xdr:row>27</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
@@ -9003,18 +10053,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2072" r:id="rId28" name="Check Box 24">
+        <control shapeId="2072" r:id="rId33" name="Check Box 24">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>50</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>26</xdr:row>
                 <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>51</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
+                <xdr:colOff>85725</xdr:colOff>
                 <xdr:row>28</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
@@ -9025,7 +10075,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2073" r:id="rId29" name="Check Box 25">
+        <control shapeId="2073" r:id="rId34" name="Check Box 25">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -9038,7 +10088,73 @@
                 <xdr:col>42</xdr:col>
                 <xdr:colOff>104775</xdr:colOff>
                 <xdr:row>31</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2076" r:id="rId35" name="Check Box 28">
+          <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>31</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>33</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2077" r:id="rId36" name="Button 29">
+          <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!Button10_Click">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>31</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>39</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2078" r:id="rId37" name="Button 30">
+          <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!Button10_Click">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>85725</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
